--- a/Data/EC/NIT-8924006439.xlsx
+++ b/Data/EC/NIT-8924006439.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373175B2-3ADE-4B48-A564-20307BA9D9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB39551-F797-4289-B9C2-6BBA88EE71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61AF7874-F318-4869-A09E-E8A9340DCA45}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B078447E-239E-42E3-B5D0-882F0926A890}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="136">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,349 +65,352 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73570911</t>
+  </si>
+  <si>
+    <t>HUBEIMAR ROJAS VASQUEZ</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>32935642</t>
+  </si>
+  <si>
+    <t>CLAUDIA AMPARO JIMENEZ VERGARA</t>
+  </si>
+  <si>
+    <t>1143350598</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA FLOREZ COLON</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1047389965</t>
+  </si>
+  <si>
+    <t>EDGAR RICARDO CERVANTES PATERNINA</t>
+  </si>
+  <si>
+    <t>1143356845</t>
+  </si>
+  <si>
+    <t>JAVIER ARTURO CORONEL RIVERA</t>
+  </si>
+  <si>
+    <t>1143392278</t>
+  </si>
+  <si>
+    <t>MIGUEL GIOVANNY MARTINEZ SERRANO</t>
+  </si>
+  <si>
+    <t>1001979648</t>
+  </si>
+  <si>
+    <t>YUSEILI ROCHA GUZMAN</t>
+  </si>
+  <si>
     <t>22698912</t>
   </si>
   <si>
     <t>JAEL ESTHER BARRAZA NORIEGA</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1143350598</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA FLOREZ COLON</t>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
   </si>
   <si>
     <t>1803</t>
   </si>
   <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>73570911</t>
-  </si>
-  <si>
-    <t>HUBEIMAR ROJAS VASQUEZ</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
     <t>1047502209</t>
   </si>
   <si>
     <t>ANDERSON RIVERA MURILLO</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>1143356845</t>
-  </si>
-  <si>
-    <t>JAVIER ARTURO CORONEL RIVERA</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1143392278</t>
-  </si>
-  <si>
-    <t>MIGUEL GIOVANNY MARTINEZ SERRANO</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
     <t>1140833361</t>
   </si>
   <si>
     <t>ANDRES DAVID LOPEZ SANDOVAL</t>
   </si>
   <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>1143414475</t>
   </si>
   <si>
     <t>MARIA ALEJANDRA IMITOLA PINO</t>
   </si>
   <si>
-    <t>32935642</t>
-  </si>
-  <si>
-    <t>CLAUDIA AMPARO JIMENEZ VERGARA</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
     <t>1007583613</t>
   </si>
   <si>
     <t>ANDREA CAROLINA NARVAEZ BUELVAS</t>
   </si>
   <si>
-    <t>2311</t>
-  </si>
-  <si>
     <t>1020463400</t>
   </si>
   <si>
     <t>CRISTIAN ALBEIRO HENAO OSORIO</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>1047389965</t>
-  </si>
-  <si>
-    <t>EDGAR RICARDO CERVANTES PATERNINA</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>1001979648</t>
-  </si>
-  <si>
-    <t>YUSEILI ROCHA GUZMAN</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -821,7 +824,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDEB531C-17E3-3863-113A-825ADE075D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0656CEA6-9304-20E8-7215-6243145BD92D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1172,8 +1175,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5812AF2-1441-448C-ADC3-A174FA990AEF}">
-  <dimension ref="B2:J333"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E41A67E-3925-45D8-84D1-2A8CB5B9656D}">
+  <dimension ref="B2:J338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1197,7 +1200,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1242,7 +1245,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1274,12 +1277,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>13345887</v>
+        <v>13602028</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1290,17 +1293,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C13" s="5">
         <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F13" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1327,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1350,10 +1353,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1364,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>46216</v>
+        <v>25000</v>
       </c>
       <c r="G17" s="18">
-        <v>1155381</v>
+        <v>668000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1393,13 +1396,13 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1416,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1439,13 +1442,13 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1462,13 +1465,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1485,13 +1488,13 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1508,13 +1511,13 @@
         <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1531,13 +1534,13 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1554,13 +1557,13 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1577,13 +1580,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1600,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1617,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>25000</v>
       </c>
       <c r="G28" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1646,13 +1649,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1669,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1686,19 +1689,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>25000</v>
       </c>
       <c r="G31" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1709,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>25000</v>
       </c>
       <c r="G32" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1741,10 +1744,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1755,10 +1758,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>29</v>
@@ -1767,7 +1770,7 @@
         <v>25000</v>
       </c>
       <c r="G34" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1784,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1807,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1824,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>25000</v>
       </c>
       <c r="G37" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1853,13 +1856,13 @@
         <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1870,19 +1873,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>25000</v>
       </c>
       <c r="G39" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1899,13 +1902,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1916,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>25000</v>
       </c>
       <c r="G41" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1939,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>25000</v>
       </c>
       <c r="G42" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1968,13 +1971,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1985,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>25000</v>
       </c>
       <c r="G44" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -2014,13 +2017,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2037,13 +2040,13 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2054,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>25000</v>
       </c>
       <c r="G47" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2077,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>25000</v>
       </c>
       <c r="G48" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -2106,13 +2109,13 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2129,13 +2132,13 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2146,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>25000</v>
       </c>
       <c r="G51" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2175,13 +2178,13 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2192,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>25000</v>
       </c>
       <c r="G53" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2221,13 +2224,13 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G54" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2238,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>25000</v>
       </c>
       <c r="G55" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2261,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>25000</v>
       </c>
       <c r="G56" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2290,13 +2293,13 @@
         <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2313,13 +2316,13 @@
         <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2330,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>25000</v>
       </c>
       <c r="G59" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2353,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>25000</v>
       </c>
       <c r="G60" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2382,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2399,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>25000</v>
       </c>
       <c r="G62" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2428,13 +2431,13 @@
         <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G63" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2451,13 +2454,13 @@
         <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2468,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>25000</v>
       </c>
       <c r="G65" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2491,19 +2494,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>25000</v>
       </c>
       <c r="G66" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2520,13 +2523,13 @@
         <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2543,13 +2546,13 @@
         <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2560,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>25000</v>
       </c>
       <c r="G69" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2589,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2606,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>25000</v>
       </c>
       <c r="G71" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2629,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>25000</v>
       </c>
       <c r="G72" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2658,13 +2661,13 @@
         <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2681,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2698,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="F75" s="18">
         <v>25000</v>
       </c>
       <c r="G75" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2721,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="F76" s="18">
         <v>25000</v>
       </c>
       <c r="G76" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2750,13 +2753,13 @@
         <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2767,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F78" s="18">
         <v>25000</v>
       </c>
       <c r="G78" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2796,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G79" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2819,13 +2822,13 @@
         <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2836,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F81" s="18">
         <v>25000</v>
       </c>
       <c r="G81" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2859,19 +2862,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F82" s="18">
         <v>25000</v>
       </c>
       <c r="G82" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2888,13 +2891,13 @@
         <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G83" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2905,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F84" s="18">
         <v>25000</v>
       </c>
       <c r="G84" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2934,13 +2937,13 @@
         <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2957,13 +2960,13 @@
         <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G86" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2974,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F87" s="18">
         <v>25000</v>
       </c>
       <c r="G87" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3003,13 +3006,13 @@
         <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G88" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -3020,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="F89" s="18">
         <v>25000</v>
       </c>
       <c r="G89" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3043,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F90" s="18">
         <v>25000</v>
       </c>
       <c r="G90" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3072,13 +3075,13 @@
         <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3089,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F92" s="18">
         <v>25000</v>
       </c>
       <c r="G92" s="18">
-        <v>625000</v>
+        <v>668000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3118,13 +3121,13 @@
         <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3141,13 +3144,13 @@
         <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G94" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3158,19 +3161,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="F95" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G95" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3181,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F96" s="18">
-        <v>36341</v>
+        <v>67440</v>
       </c>
       <c r="G96" s="18">
-        <v>908526</v>
+        <v>1686014</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3204,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F97" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G97" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3227,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G98" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3250,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3273,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F100" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G100" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3296,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F101" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G101" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3319,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G102" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3342,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F103" s="18">
-        <v>16000</v>
+        <v>67440</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3365,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G104" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3388,19 +3391,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="F105" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G105" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3411,19 +3414,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="F106" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G106" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3434,19 +3437,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3457,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3480,19 +3483,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G109" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3503,19 +3506,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F110" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G110" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3526,19 +3529,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G111" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3549,19 +3552,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>31472</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3572,19 +3575,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="F113" s="18">
-        <v>25000</v>
+        <v>46216</v>
       </c>
       <c r="G113" s="18">
-        <v>625000</v>
+        <v>1155381</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3595,19 +3598,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3618,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="F115" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G115" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3641,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="F116" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G116" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3664,19 +3667,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F117" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G117" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3687,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="F118" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G118" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3710,19 +3713,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3733,19 +3736,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F120" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G120" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3756,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G121" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3779,19 +3782,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F122" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G122" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3802,19 +3805,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="F123" s="18">
-        <v>45707</v>
+        <v>67440</v>
       </c>
       <c r="G123" s="18">
-        <v>2016475</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3825,19 +3828,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="F124" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G124" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3848,19 +3851,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="F125" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G125" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3871,19 +3874,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G126" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3894,19 +3897,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3917,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="F128" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G128" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3940,19 +3943,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="F129" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G129" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3963,19 +3966,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="F130" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G130" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3986,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G131" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4009,19 +4012,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F132" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G132" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4032,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="F133" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G133" s="18">
-        <v>625000</v>
+        <v>1423500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4055,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>16000</v>
       </c>
       <c r="G134" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4078,13 +4081,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F135" s="18">
         <v>40000</v>
@@ -4101,19 +4104,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="F136" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G136" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4124,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="F137" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G137" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4147,13 +4150,13 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="F138" s="18">
         <v>40000</v>
@@ -4170,19 +4173,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="F139" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G139" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4193,13 +4196,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="F140" s="18">
         <v>40000</v>
@@ -4216,19 +4219,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="F141" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G141" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4239,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="F142" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G142" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4262,13 +4265,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4285,19 +4288,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F144" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G144" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4308,19 +4311,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="F145" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G145" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4331,19 +4334,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="F146" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G146" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4354,13 +4357,13 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F147" s="18">
         <v>40000</v>
@@ -4377,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F148" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G148" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4400,13 +4403,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4423,19 +4426,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="F150" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G150" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4446,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="F151" s="18">
         <v>40000</v>
@@ -4469,19 +4472,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="F152" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G152" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
@@ -4492,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F153" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G153" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4515,13 +4518,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F154" s="18">
         <v>40000</v>
@@ -4538,19 +4541,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="F155" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G155" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4561,19 +4564,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="F156" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G156" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4584,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F157" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G157" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4607,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F158" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G158" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4630,19 +4633,19 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F159" s="18">
-        <v>21654</v>
+        <v>40000</v>
       </c>
       <c r="G159" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
@@ -4653,13 +4656,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="F160" s="18">
         <v>40000</v>
@@ -4676,19 +4679,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="F161" s="18">
-        <v>31472</v>
+        <v>40000</v>
       </c>
       <c r="G161" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4699,13 +4702,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F162" s="18">
         <v>40000</v>
@@ -4722,19 +4725,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="F163" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G163" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4745,19 +4748,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="F164" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G164" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4768,19 +4771,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F165" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G165" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4791,19 +4794,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F166" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G166" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4814,19 +4817,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F167" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G167" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4837,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F168" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G168" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4860,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="F169" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G169" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4883,13 +4886,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="F170" s="18">
         <v>40000</v>
@@ -4906,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="F171" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G171" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4929,19 +4932,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F172" s="18">
-        <v>38216</v>
+        <v>40000</v>
       </c>
       <c r="G172" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4952,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F173" s="18">
-        <v>25000</v>
+        <v>40000</v>
       </c>
       <c r="G173" s="18">
-        <v>625000</v>
+        <v>1000000</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4975,13 +4978,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
@@ -4998,19 +5001,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="F175" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G175" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5021,19 +5024,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F176" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G176" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5044,13 +5047,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="F177" s="18">
         <v>67440</v>
@@ -5067,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="F178" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G178" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5090,13 +5093,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F179" s="18">
         <v>67440</v>
@@ -5113,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F180" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G180" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5136,19 +5139,19 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="F181" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G181" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
@@ -5159,13 +5162,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F182" s="18">
         <v>67440</v>
@@ -5182,19 +5185,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="F183" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G183" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5205,13 +5208,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D184" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D184" s="17" t="s">
-        <v>103</v>
-      </c>
       <c r="E184" s="16" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="F184" s="18">
         <v>67440</v>
@@ -5228,19 +5231,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="F185" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G185" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5251,19 +5254,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="F186" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G186" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5274,19 +5277,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F187" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5297,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="F188" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G188" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5320,13 +5323,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5343,19 +5346,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F190" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G190" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5366,19 +5369,19 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F191" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G191" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
@@ -5389,19 +5392,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F192" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5412,19 +5415,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="F193" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G193" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5435,19 +5438,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F194" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5458,19 +5461,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="F195" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G195" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5481,19 +5484,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="F196" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5504,13 +5507,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5527,19 +5530,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="F198" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5550,19 +5553,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F199" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5573,19 +5576,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F200" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5596,19 +5599,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F201" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5619,19 +5622,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F202" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5642,19 +5645,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="F203" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5665,19 +5668,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="F204" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5688,19 +5691,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="F205" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5711,19 +5714,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="F206" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5734,19 +5737,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F207" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5757,19 +5760,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>108</v>
+        <v>32</v>
       </c>
       <c r="F208" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5780,19 +5783,19 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="F209" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
@@ -5803,19 +5806,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="F210" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5826,13 +5829,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5849,19 +5852,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="F212" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5872,19 +5875,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="F213" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5895,19 +5898,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F214" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5918,19 +5921,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="F215" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5941,13 +5944,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -5964,19 +5967,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="F217" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5987,19 +5990,19 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="F218" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
@@ -6010,19 +6013,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F219" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6033,19 +6036,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="F220" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6056,19 +6059,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="F221" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6079,13 +6082,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -6102,19 +6105,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F223" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G223" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6125,19 +6128,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="F224" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G224" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6148,19 +6151,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="F225" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G225" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6171,19 +6174,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F226" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G226" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6194,19 +6197,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="F227" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G227" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6217,19 +6220,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F228" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G228" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6240,19 +6243,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="F229" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G229" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6263,19 +6266,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="F230" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G230" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6286,13 +6289,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6309,19 +6312,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="F232" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G232" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6332,19 +6335,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="F233" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G233" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6355,19 +6358,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="F234" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G234" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6378,19 +6381,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="F235" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G235" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6401,19 +6404,19 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="F236" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G236" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H236" s="19"/>
       <c r="I236" s="19"/>
@@ -6424,19 +6427,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="F237" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G237" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6447,19 +6450,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="F238" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G238" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6470,19 +6473,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="F239" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G239" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6493,19 +6496,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="F240" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G240" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6516,19 +6519,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="F241" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G241" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6539,19 +6542,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="F242" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G242" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6562,13 +6565,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6585,19 +6588,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F244" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G244" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6608,19 +6611,19 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F245" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G245" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H245" s="19"/>
       <c r="I245" s="19"/>
@@ -6631,19 +6634,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F246" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G246" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6654,19 +6657,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="F247" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G247" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6677,19 +6680,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F248" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G248" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6700,13 +6703,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6723,19 +6726,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="F250" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G250" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6746,19 +6749,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F251" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G251" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6769,19 +6772,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="F252" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G252" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6792,19 +6795,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="F253" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G253" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6815,19 +6818,19 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="F254" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G254" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H254" s="19"/>
       <c r="I254" s="19"/>
@@ -6838,19 +6841,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F255" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G255" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6861,19 +6864,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="F256" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G256" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6884,19 +6887,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="F257" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G257" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6907,19 +6910,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="F258" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G258" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6930,19 +6933,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="F259" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G259" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6953,19 +6956,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="F260" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G260" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6976,19 +6979,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="F261" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G261" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -6999,13 +7002,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -7022,19 +7025,19 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="F263" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G263" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H263" s="19"/>
       <c r="I263" s="19"/>
@@ -7045,19 +7048,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F264" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G264" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7068,19 +7071,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="F265" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G265" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7091,19 +7094,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F266" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G266" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7114,19 +7117,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F267" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G267" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7137,19 +7140,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F268" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7160,13 +7163,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F269" s="18">
         <v>31249</v>
@@ -7183,19 +7186,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F270" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G270" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7206,19 +7209,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F271" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7229,19 +7232,19 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F272" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G272" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H272" s="19"/>
       <c r="I272" s="19"/>
@@ -7252,19 +7255,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F273" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G273" s="18">
-        <v>625000</v>
+        <v>781242</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7275,19 +7278,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F274" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7298,19 +7301,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F275" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G275" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7321,19 +7324,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F276" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7344,19 +7347,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="F277" s="18">
-        <v>92452</v>
+        <v>36341</v>
       </c>
       <c r="G277" s="18">
-        <v>2311289</v>
+        <v>908526</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7367,19 +7370,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F278" s="18">
-        <v>67440</v>
+        <v>45707</v>
       </c>
       <c r="G278" s="18">
-        <v>1686014</v>
+        <v>2016475</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7390,13 +7393,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="F279" s="18">
         <v>46400</v>
@@ -7413,19 +7416,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="F280" s="18">
-        <v>25000</v>
+        <v>46400</v>
       </c>
       <c r="G280" s="18">
-        <v>625000</v>
+        <v>1160000</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7436,19 +7439,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="F281" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G281" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7459,19 +7462,19 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F282" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G282" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H282" s="19"/>
       <c r="I282" s="19"/>
@@ -7482,19 +7485,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="F283" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G283" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7505,19 +7508,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="F284" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G284" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7528,19 +7531,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F285" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G285" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7551,19 +7554,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>117</v>
+        <v>24</v>
       </c>
       <c r="F286" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G286" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7574,19 +7577,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="F287" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G287" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7597,19 +7600,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="F288" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G288" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7620,19 +7623,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="F289" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G289" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7643,19 +7646,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="F290" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G290" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7666,13 +7669,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="F291" s="18">
         <v>46400</v>
@@ -7689,19 +7692,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="F292" s="18">
-        <v>92452</v>
+        <v>46400</v>
       </c>
       <c r="G292" s="18">
-        <v>2311289</v>
+        <v>1160000</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7712,19 +7715,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="F293" s="18">
-        <v>25000</v>
+        <v>46400</v>
       </c>
       <c r="G293" s="18">
-        <v>625000</v>
+        <v>1160000</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7735,19 +7738,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="F294" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G294" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7758,19 +7761,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="F295" s="18">
-        <v>25000</v>
+        <v>46400</v>
       </c>
       <c r="G295" s="18">
-        <v>625000</v>
+        <v>1160000</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7781,19 +7784,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="F296" s="18">
-        <v>67440</v>
+        <v>21654</v>
       </c>
       <c r="G296" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7804,13 +7807,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="F297" s="18">
         <v>67440</v>
@@ -7827,19 +7830,19 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="F298" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G298" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H298" s="19"/>
       <c r="I298" s="19"/>
@@ -7850,19 +7853,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="F299" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G299" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7873,19 +7876,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="F300" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G300" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7896,19 +7899,19 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="F301" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G301" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H301" s="19"/>
       <c r="I301" s="19"/>
@@ -7919,13 +7922,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="F302" s="18">
         <v>67440</v>
@@ -7942,19 +7945,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="F303" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G303" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7965,19 +7968,19 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E304" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D304" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E304" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="F304" s="18">
-        <v>25000</v>
+        <v>67440</v>
       </c>
       <c r="G304" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H304" s="19"/>
       <c r="I304" s="19"/>
@@ -7988,19 +7991,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F305" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G305" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8011,13 +8014,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="F306" s="18">
         <v>67440</v>
@@ -8034,19 +8037,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="F307" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G307" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8057,19 +8060,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="F308" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G308" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8080,13 +8083,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F309" s="18">
         <v>67440</v>
@@ -8103,19 +8106,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="F310" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G310" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8126,19 +8129,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="F311" s="18">
-        <v>25000</v>
+        <v>38216</v>
       </c>
       <c r="G311" s="18">
-        <v>625000</v>
+        <v>1686014</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8149,19 +8152,19 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="F312" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G312" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H312" s="19"/>
       <c r="I312" s="19"/>
@@ -8172,19 +8175,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="F313" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G313" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8195,13 +8198,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F314" s="18">
         <v>92452</v>
@@ -8218,19 +8221,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="F315" s="18">
-        <v>25000</v>
+        <v>92452</v>
       </c>
       <c r="G315" s="18">
-        <v>625000</v>
+        <v>2311289</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8241,19 +8244,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="F316" s="18">
-        <v>40000</v>
+        <v>92452</v>
       </c>
       <c r="G316" s="18">
-        <v>1000000</v>
+        <v>2311289</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8264,19 +8267,19 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="F317" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G317" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H317" s="19"/>
       <c r="I317" s="19"/>
@@ -8287,19 +8290,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="F318" s="18">
-        <v>25000</v>
+        <v>92452</v>
       </c>
       <c r="G318" s="18">
-        <v>625000</v>
+        <v>2311289</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8310,19 +8313,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F319" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G319" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8333,19 +8336,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="F320" s="18">
-        <v>40000</v>
+        <v>92452</v>
       </c>
       <c r="G320" s="18">
-        <v>1000000</v>
+        <v>2311289</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8356,19 +8359,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F321" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G321" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8379,13 +8382,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="F322" s="18">
         <v>92452</v>
@@ -8402,19 +8405,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F323" s="18">
-        <v>25000</v>
+        <v>92452</v>
       </c>
       <c r="G323" s="18">
-        <v>625000</v>
+        <v>2311289</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8425,19 +8428,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="F324" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G324" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8448,19 +8451,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F325" s="18">
-        <v>40000</v>
+        <v>92452</v>
       </c>
       <c r="G325" s="18">
-        <v>1000000</v>
+        <v>2311289</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8471,13 +8474,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="F326" s="18">
         <v>92452</v>
@@ -8490,56 +8493,171 @@
       <c r="J326" s="20"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B327" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C327" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D327" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E327" s="22" t="s">
+      <c r="B327" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F327" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G327" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H327" s="25"/>
-      <c r="I327" s="25"/>
-      <c r="J327" s="26"/>
+      <c r="D327" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F327" s="18">
+        <v>92452</v>
+      </c>
+      <c r="G327" s="18">
+        <v>2311289</v>
+      </c>
+      <c r="H327" s="19"/>
+      <c r="I327" s="19"/>
+      <c r="J327" s="20"/>
+    </row>
+    <row r="328" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B328" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C328" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F328" s="18">
+        <v>92452</v>
+      </c>
+      <c r="G328" s="18">
+        <v>2311289</v>
+      </c>
+      <c r="H328" s="19"/>
+      <c r="I328" s="19"/>
+      <c r="J328" s="20"/>
+    </row>
+    <row r="329" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B329" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D329" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="18">
+        <v>92452</v>
+      </c>
+      <c r="G329" s="18">
+        <v>2311289</v>
+      </c>
+      <c r="H329" s="19"/>
+      <c r="I329" s="19"/>
+      <c r="J329" s="20"/>
+    </row>
+    <row r="330" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B330" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D330" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F330" s="18">
+        <v>92452</v>
+      </c>
+      <c r="G330" s="18">
+        <v>2311289</v>
+      </c>
+      <c r="H330" s="19"/>
+      <c r="I330" s="19"/>
+      <c r="J330" s="20"/>
+    </row>
+    <row r="331" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B331" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D331" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F331" s="18">
+        <v>92452</v>
+      </c>
+      <c r="G331" s="18">
+        <v>2311289</v>
+      </c>
+      <c r="H331" s="19"/>
+      <c r="I331" s="19"/>
+      <c r="J331" s="20"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B332" s="32" t="s">
+      <c r="B332" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D332" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E332" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F332" s="24">
+        <v>92452</v>
+      </c>
+      <c r="G332" s="24">
+        <v>2311289</v>
+      </c>
+      <c r="H332" s="25"/>
+      <c r="I332" s="25"/>
+      <c r="J332" s="26"/>
+    </row>
+    <row r="337" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B337" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C337" s="32"/>
+      <c r="H337" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B338" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C332" s="32"/>
-      <c r="H332" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
-    </row>
-    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B333" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C333" s="32"/>
-      <c r="H333" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
+      <c r="C338" s="32"/>
+      <c r="H338" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B333:C333"/>
-    <mergeCell ref="B332:C332"/>
-    <mergeCell ref="H333:J333"/>
-    <mergeCell ref="H332:J332"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="H338:J338"/>
+    <mergeCell ref="H337:J337"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8924006439.xlsx
+++ b/Data/EC/NIT-8924006439.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB39551-F797-4289-B9C2-6BBA88EE71BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5147B8D-3003-42F0-863A-2336CBC3821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B078447E-239E-42E3-B5D0-882F0926A890}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0B56E64-52C9-4B93-B7F5-A703BAB60B40}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="139">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,352 +65,361 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143350598</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA FLOREZ COLON</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>22698912</t>
+  </si>
+  <si>
+    <t>JAEL ESTHER BARRAZA NORIEGA</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
     <t>73570911</t>
   </si>
   <si>
     <t>HUBEIMAR ROJAS VASQUEZ</t>
   </si>
   <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>1047502209</t>
+  </si>
+  <si>
+    <t>ANDERSON RIVERA MURILLO</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1143356845</t>
+  </si>
+  <si>
+    <t>JAVIER ARTURO CORONEL RIVERA</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>1143392278</t>
+  </si>
+  <si>
+    <t>MIGUEL GIOVANNY MARTINEZ SERRANO</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1140833361</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID LOPEZ SANDOVAL</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>32935642</t>
+  </si>
+  <si>
+    <t>CLAUDIA AMPARO JIMENEZ VERGARA</t>
+  </si>
+  <si>
+    <t>1143414475</t>
+  </si>
+  <si>
+    <t>MARIA ALEJANDRA IMITOLA PINO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>1007583613</t>
+  </si>
+  <si>
+    <t>ANDREA CAROLINA NARVAEZ BUELVAS</t>
+  </si>
+  <si>
+    <t>1020463400</t>
+  </si>
+  <si>
+    <t>CRISTIAN ALBEIRO HENAO OSORIO</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>1047389965</t>
+  </si>
+  <si>
+    <t>EDGAR RICARDO CERVANTES PATERNINA</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>1001979648</t>
+  </si>
+  <si>
+    <t>YUSEILI ROCHA GUZMAN</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>32935642</t>
-  </si>
-  <si>
-    <t>CLAUDIA AMPARO JIMENEZ VERGARA</t>
-  </si>
-  <si>
-    <t>1143350598</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA FLOREZ COLON</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1047389965</t>
-  </si>
-  <si>
-    <t>EDGAR RICARDO CERVANTES PATERNINA</t>
-  </si>
-  <si>
-    <t>1143356845</t>
-  </si>
-  <si>
-    <t>JAVIER ARTURO CORONEL RIVERA</t>
-  </si>
-  <si>
-    <t>1143392278</t>
-  </si>
-  <si>
-    <t>MIGUEL GIOVANNY MARTINEZ SERRANO</t>
-  </si>
-  <si>
-    <t>1001979648</t>
-  </si>
-  <si>
-    <t>YUSEILI ROCHA GUZMAN</t>
-  </si>
-  <si>
-    <t>22698912</t>
-  </si>
-  <si>
-    <t>JAEL ESTHER BARRAZA NORIEGA</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1047502209</t>
-  </si>
-  <si>
-    <t>ANDERSON RIVERA MURILLO</t>
-  </si>
-  <si>
-    <t>1140833361</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID LOPEZ SANDOVAL</t>
-  </si>
-  <si>
-    <t>1143414475</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA IMITOLA PINO</t>
-  </si>
-  <si>
-    <t>1007583613</t>
-  </si>
-  <si>
-    <t>ANDREA CAROLINA NARVAEZ BUELVAS</t>
-  </si>
-  <si>
-    <t>1020463400</t>
-  </si>
-  <si>
-    <t>CRISTIAN ALBEIRO HENAO OSORIO</t>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>1020105792</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL RUIZ VANEGAS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +518,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -522,9 +533,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -724,23 +733,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,10 +777,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,7 +833,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0656CEA6-9304-20E8-7215-6243145BD92D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594F60CE-18EA-D1E4-AC06-A9358AE43F3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1175,8 +1184,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E41A67E-3925-45D8-84D1-2A8CB5B9656D}">
-  <dimension ref="B2:J338"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB645B19-1F22-4BAA-B753-B1149BCAD9DC}">
+  <dimension ref="B2:J344"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1200,7 +1209,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1245,7 +1254,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1277,12 +1286,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>13602028</v>
+        <v>13967454</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1293,17 +1302,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F13" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1330,13 +1339,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1353,10 +1362,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25000</v>
+        <v>46216</v>
       </c>
       <c r="G16" s="18">
-        <v>668000</v>
+        <v>1155381</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1367,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1390,19 +1399,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G18" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1413,19 +1422,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1436,19 +1445,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1459,19 +1468,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1482,19 +1491,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1505,19 +1514,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1528,19 +1537,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1551,19 +1560,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1574,19 +1583,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1597,19 +1606,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1620,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>25000</v>
@@ -1643,19 +1652,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1666,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>25000</v>
@@ -1689,19 +1698,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1712,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>25000</v>
@@ -1735,19 +1744,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1758,10 +1767,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>29</v>
@@ -1781,19 +1790,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1804,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
         <v>25000</v>
@@ -1827,19 +1836,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1850,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>25000</v>
@@ -1873,19 +1882,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1896,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
         <v>25000</v>
@@ -1919,19 +1928,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1942,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F42" s="18">
         <v>25000</v>
@@ -1965,19 +1974,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F43" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1988,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
         <v>25000</v>
@@ -2011,19 +2020,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F45" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2034,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F46" s="18">
         <v>25000</v>
@@ -2057,19 +2066,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F47" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2080,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F48" s="18">
         <v>25000</v>
@@ -2103,19 +2112,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F49" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2126,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
         <v>25000</v>
@@ -2149,19 +2158,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F51" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2172,13 +2181,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F52" s="18">
         <v>25000</v>
@@ -2195,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F53" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2218,13 +2227,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F54" s="18">
         <v>25000</v>
@@ -2241,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F55" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2264,13 +2273,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F56" s="18">
         <v>25000</v>
@@ -2287,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F57" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2310,13 +2319,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
         <v>25000</v>
@@ -2333,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2356,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
         <v>25000</v>
@@ -2379,19 +2388,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F61" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2402,13 +2411,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F62" s="18">
         <v>25000</v>
@@ -2425,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F63" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2448,13 +2457,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F64" s="18">
         <v>25000</v>
@@ -2471,19 +2480,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F65" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2494,13 +2503,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
         <v>25000</v>
@@ -2517,19 +2526,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2540,13 +2549,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="F68" s="18">
         <v>25000</v>
@@ -2563,19 +2572,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F69" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2586,13 +2595,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F70" s="18">
         <v>25000</v>
@@ -2609,19 +2618,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F71" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G71" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2632,13 +2641,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F72" s="18">
         <v>25000</v>
@@ -2655,19 +2664,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F73" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2678,13 +2687,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
         <v>25000</v>
@@ -2701,19 +2710,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F75" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G75" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2724,13 +2733,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F76" s="18">
         <v>25000</v>
@@ -2747,19 +2756,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F77" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2770,13 +2779,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
         <v>25000</v>
@@ -2793,19 +2802,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F79" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2816,13 +2825,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F80" s="18">
         <v>25000</v>
@@ -2839,19 +2848,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F81" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2862,13 +2871,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F82" s="18">
         <v>25000</v>
@@ -2885,19 +2894,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="F83" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2908,13 +2917,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F84" s="18">
         <v>25000</v>
@@ -2931,19 +2940,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F85" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2954,13 +2963,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="F86" s="18">
         <v>25000</v>
@@ -2977,19 +2986,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F87" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3000,13 +3009,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F88" s="18">
         <v>25000</v>
@@ -3023,19 +3032,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F89" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3046,13 +3055,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F90" s="18">
         <v>25000</v>
@@ -3069,19 +3078,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="F91" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3092,13 +3101,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F92" s="18">
         <v>25000</v>
@@ -3115,19 +3124,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="F93" s="18">
-        <v>25000</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
-        <v>668000</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3138,13 +3147,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F94" s="18">
         <v>25000</v>
@@ -3161,19 +3170,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F95" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3184,19 +3193,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F96" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G96" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3207,19 +3216,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F97" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3230,19 +3239,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F98" s="18">
-        <v>67440</v>
+        <v>36341</v>
       </c>
       <c r="G98" s="18">
-        <v>1686014</v>
+        <v>908526</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3253,19 +3262,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="F99" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G99" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3276,19 +3285,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F100" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3299,19 +3308,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F101" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G101" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3322,19 +3331,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F102" s="18">
-        <v>67440</v>
+        <v>16000</v>
       </c>
       <c r="G102" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3345,19 +3354,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F103" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3368,19 +3377,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F104" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G104" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3391,19 +3400,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="F105" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3414,19 +3423,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="F106" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G106" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3437,19 +3446,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F107" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G107" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3460,19 +3469,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F108" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G108" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3483,19 +3492,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F109" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G109" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3506,19 +3515,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F110" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G110" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3529,19 +3538,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F111" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G111" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3552,19 +3561,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F112" s="18">
-        <v>31472</v>
+        <v>40000</v>
       </c>
       <c r="G112" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3575,19 +3584,19 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F113" s="18">
-        <v>46216</v>
+        <v>31249</v>
       </c>
       <c r="G113" s="18">
-        <v>1155381</v>
+        <v>781242</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -3598,19 +3607,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F114" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G114" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3621,19 +3630,19 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="F115" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3644,19 +3653,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="F116" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G116" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3667,19 +3676,19 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F117" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G117" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3690,19 +3699,19 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="F118" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3713,19 +3722,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="F119" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G119" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3736,19 +3745,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F120" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G120" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3759,19 +3768,19 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F121" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G121" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
@@ -3782,19 +3791,19 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="F122" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G122" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -3805,19 +3814,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F123" s="18">
-        <v>67440</v>
+        <v>45707</v>
       </c>
       <c r="G123" s="18">
-        <v>1423500</v>
+        <v>2016475</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3828,19 +3837,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="F124" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G124" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3851,19 +3860,19 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="F125" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3874,19 +3883,19 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F126" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G126" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3897,19 +3906,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="F127" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G127" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3920,19 +3929,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F128" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G128" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3943,19 +3952,19 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F129" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G129" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -3966,19 +3975,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F130" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G130" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3989,19 +3998,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F131" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G131" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4012,19 +4021,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F132" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G132" s="18">
-        <v>1423500</v>
+        <v>781242</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4035,19 +4044,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F133" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G133" s="18">
-        <v>1423500</v>
+        <v>668000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4058,16 +4067,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F134" s="18">
-        <v>16000</v>
+        <v>40000</v>
       </c>
       <c r="G134" s="18">
         <v>1000000</v>
@@ -4081,19 +4090,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="F135" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G135" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4104,19 +4113,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="F136" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G136" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4127,13 +4136,13 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="F137" s="18">
         <v>40000</v>
@@ -4150,19 +4159,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="F138" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G138" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4173,19 +4182,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F139" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G139" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4196,13 +4205,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="F140" s="18">
         <v>40000</v>
@@ -4219,19 +4228,19 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F141" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G141" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -4242,19 +4251,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="F142" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G142" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4265,13 +4274,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F143" s="18">
         <v>40000</v>
@@ -4288,19 +4297,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="F144" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4311,19 +4320,19 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="F145" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G145" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -4334,13 +4343,13 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="F146" s="18">
         <v>40000</v>
@@ -4357,19 +4366,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F147" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4380,19 +4389,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="F148" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G148" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4403,13 +4412,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F149" s="18">
         <v>40000</v>
@@ -4426,19 +4435,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="F150" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4449,19 +4458,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F151" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G151" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
@@ -4472,13 +4481,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="F152" s="18">
         <v>40000</v>
@@ -4495,19 +4504,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F153" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4518,19 +4527,19 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F154" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G154" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -4541,13 +4550,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="F155" s="18">
         <v>40000</v>
@@ -4564,19 +4573,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="F156" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4587,19 +4596,19 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="F157" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G157" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -4610,19 +4619,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="F158" s="18">
-        <v>40000</v>
+        <v>31472</v>
       </c>
       <c r="G158" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4633,13 +4642,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F159" s="18">
         <v>40000</v>
@@ -4656,19 +4665,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="F160" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4679,19 +4688,19 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F161" s="18">
-        <v>40000</v>
+        <v>21654</v>
       </c>
       <c r="G161" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -4702,19 +4711,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F162" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G162" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4725,19 +4734,19 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F163" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G163" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -4748,13 +4757,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F164" s="18">
         <v>40000</v>
@@ -4771,19 +4780,19 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F165" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G165" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -4794,19 +4803,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F166" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G166" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4817,19 +4826,19 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="F167" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G167" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
@@ -4840,19 +4849,19 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F168" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G168" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
@@ -4863,13 +4872,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F169" s="18">
         <v>40000</v>
@@ -4886,19 +4895,19 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F170" s="18">
-        <v>40000</v>
+        <v>31249</v>
       </c>
       <c r="G170" s="18">
-        <v>1000000</v>
+        <v>781242</v>
       </c>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
@@ -4909,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F171" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G171" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4932,19 +4941,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F172" s="18">
-        <v>40000</v>
+        <v>25000</v>
       </c>
       <c r="G172" s="18">
-        <v>1000000</v>
+        <v>668000</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4955,19 +4964,19 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="F173" s="18">
-        <v>40000</v>
+        <v>67440</v>
       </c>
       <c r="G173" s="18">
-        <v>1000000</v>
+        <v>1686014</v>
       </c>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
@@ -4978,13 +4987,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F174" s="18">
         <v>40000</v>
@@ -5001,19 +5010,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="F175" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5024,19 +5033,19 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="F176" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G176" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
@@ -5047,16 +5056,16 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="F177" s="18">
-        <v>67440</v>
+        <v>38216</v>
       </c>
       <c r="G177" s="18">
         <v>1686014</v>
@@ -5070,19 +5079,19 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F178" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G178" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
@@ -5093,19 +5102,19 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D179" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F179" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G179" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
@@ -5116,13 +5125,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D180" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E180" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D180" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F180" s="18">
         <v>67440</v>
@@ -5139,13 +5148,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D181" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E181" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D181" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E181" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="F181" s="18">
         <v>67440</v>
@@ -5162,19 +5171,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E182" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D182" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E182" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F182" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G182" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5185,19 +5194,19 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D183" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F183" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G183" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
@@ -5208,19 +5217,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D184" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D184" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F184" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G184" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5231,13 +5240,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D185" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E185" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D185" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F185" s="18">
         <v>67440</v>
@@ -5254,19 +5263,19 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D186" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D186" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F186" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G186" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
@@ -5277,19 +5286,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D187" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E187" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E187" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F187" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G187" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5300,19 +5309,19 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D188" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E188" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E188" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F188" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G188" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
@@ -5323,19 +5332,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D189" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="E189" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E189" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F189" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G189" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5346,19 +5355,19 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D190" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E190" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E190" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F190" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G190" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
@@ -5369,13 +5378,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D191" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5392,19 +5401,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D192" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E192" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F192" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G192" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5415,19 +5424,19 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D193" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E193" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E193" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F193" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G193" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
@@ -5438,19 +5447,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D194" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E194" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E194" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F194" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G194" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5461,19 +5470,19 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="F195" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G195" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
@@ -5484,19 +5493,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="F196" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G196" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5507,19 +5516,19 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D197" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E197" s="16" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F197" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G197" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
@@ -5530,19 +5539,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F198" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G198" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5553,19 +5562,19 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="F199" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G199" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
@@ -5576,13 +5585,13 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F200" s="18">
         <v>31249</v>
@@ -5599,19 +5608,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="F201" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G201" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5622,19 +5631,19 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F202" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G202" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
@@ -5645,19 +5654,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F203" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G203" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5668,19 +5677,19 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="F204" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G204" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
@@ -5691,19 +5700,19 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F205" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G205" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
@@ -5714,19 +5723,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D206" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E206" s="16" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="F206" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G206" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5737,19 +5746,19 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F207" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G207" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
@@ -5760,19 +5769,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="F208" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G208" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5783,13 +5792,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5806,19 +5815,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F210" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G210" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5829,19 +5838,19 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="F211" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G211" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
@@ -5852,19 +5861,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="F212" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G212" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5875,19 +5884,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="F213" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G213" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5898,19 +5907,19 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F214" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G214" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
@@ -5921,19 +5930,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D215" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D215" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E215" s="16" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="F215" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G215" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5944,19 +5953,19 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="F216" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G216" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
@@ -5967,19 +5976,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="F217" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G217" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -5990,13 +5999,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F218" s="18">
         <v>31249</v>
@@ -6013,19 +6022,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F219" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G219" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6036,19 +6045,19 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F220" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G220" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
@@ -6059,19 +6068,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="F221" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G221" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6082,19 +6091,19 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F222" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G222" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
@@ -6105,19 +6114,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="F223" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G223" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6128,19 +6137,19 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D224" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D224" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E224" s="16" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G224" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
@@ -6151,19 +6160,19 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G225" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
@@ -6174,19 +6183,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F226" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G226" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6197,13 +6206,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6220,19 +6229,19 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="F228" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G228" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H228" s="19"/>
       <c r="I228" s="19"/>
@@ -6243,19 +6252,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F229" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G229" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6266,19 +6275,19 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G230" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H230" s="19"/>
       <c r="I230" s="19"/>
@@ -6289,19 +6298,19 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G231" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H231" s="19"/>
       <c r="I231" s="19"/>
@@ -6312,19 +6321,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F232" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G232" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6335,19 +6344,19 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D233" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D233" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E233" s="16" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G233" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H233" s="19"/>
       <c r="I233" s="19"/>
@@ -6358,19 +6367,19 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F234" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G234" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H234" s="19"/>
       <c r="I234" s="19"/>
@@ -6381,19 +6390,19 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F235" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G235" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H235" s="19"/>
       <c r="I235" s="19"/>
@@ -6404,13 +6413,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6427,19 +6436,19 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="F237" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G237" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H237" s="19"/>
       <c r="I237" s="19"/>
@@ -6450,19 +6459,19 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="F238" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G238" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H238" s="19"/>
       <c r="I238" s="19"/>
@@ -6473,19 +6482,19 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F239" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G239" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H239" s="19"/>
       <c r="I239" s="19"/>
@@ -6496,19 +6505,19 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="F240" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G240" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H240" s="19"/>
       <c r="I240" s="19"/>
@@ -6519,19 +6528,19 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="F241" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G241" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H241" s="19"/>
       <c r="I241" s="19"/>
@@ -6542,19 +6551,19 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D242" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D242" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E242" s="16" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="F242" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G242" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H242" s="19"/>
       <c r="I242" s="19"/>
@@ -6565,19 +6574,19 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="F243" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G243" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H243" s="19"/>
       <c r="I243" s="19"/>
@@ -6588,19 +6597,19 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="F244" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G244" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H244" s="19"/>
       <c r="I244" s="19"/>
@@ -6611,13 +6620,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6634,19 +6643,19 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F246" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G246" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H246" s="19"/>
       <c r="I246" s="19"/>
@@ -6657,19 +6666,19 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="F247" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G247" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H247" s="19"/>
       <c r="I247" s="19"/>
@@ -6680,19 +6689,19 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F248" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G248" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H248" s="19"/>
       <c r="I248" s="19"/>
@@ -6703,19 +6712,19 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F249" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G249" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H249" s="19"/>
       <c r="I249" s="19"/>
@@ -6726,19 +6735,19 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="F250" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G250" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="19"/>
@@ -6749,19 +6758,19 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D251" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D251" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E251" s="16" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="F251" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G251" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="19"/>
@@ -6772,19 +6781,19 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="F252" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G252" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="19"/>
@@ -6795,19 +6804,19 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="F253" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G253" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H253" s="19"/>
       <c r="I253" s="19"/>
@@ -6818,13 +6827,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6841,19 +6850,19 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="F255" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G255" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H255" s="19"/>
       <c r="I255" s="19"/>
@@ -6864,19 +6873,19 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F256" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G256" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H256" s="19"/>
       <c r="I256" s="19"/>
@@ -6887,19 +6896,19 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F257" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G257" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H257" s="19"/>
       <c r="I257" s="19"/>
@@ -6910,19 +6919,19 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F258" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G258" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H258" s="19"/>
       <c r="I258" s="19"/>
@@ -6933,19 +6942,19 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="F259" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G259" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H259" s="19"/>
       <c r="I259" s="19"/>
@@ -6956,19 +6965,19 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D260" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D260" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E260" s="16" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="F260" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G260" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H260" s="19"/>
       <c r="I260" s="19"/>
@@ -6979,19 +6988,19 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="F261" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G261" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H261" s="19"/>
       <c r="I261" s="19"/>
@@ -7002,19 +7011,19 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F262" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G262" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H262" s="19"/>
       <c r="I262" s="19"/>
@@ -7025,13 +7034,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -7048,19 +7057,19 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F264" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G264" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H264" s="19"/>
       <c r="I264" s="19"/>
@@ -7071,19 +7080,19 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F265" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G265" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H265" s="19"/>
       <c r="I265" s="19"/>
@@ -7094,19 +7103,19 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F266" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G266" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H266" s="19"/>
       <c r="I266" s="19"/>
@@ -7117,19 +7126,19 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F267" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G267" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H267" s="19"/>
       <c r="I267" s="19"/>
@@ -7140,19 +7149,19 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F268" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G268" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
@@ -7163,19 +7172,19 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D269" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D269" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E269" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F269" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G269" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H269" s="19"/>
       <c r="I269" s="19"/>
@@ -7186,19 +7195,19 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F270" s="18">
-        <v>31249</v>
+        <v>40000</v>
       </c>
       <c r="G270" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H270" s="19"/>
       <c r="I270" s="19"/>
@@ -7209,19 +7218,19 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F271" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G271" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H271" s="19"/>
       <c r="I271" s="19"/>
@@ -7232,13 +7241,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F272" s="18">
         <v>31249</v>
@@ -7255,19 +7264,19 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F273" s="18">
-        <v>31249</v>
+        <v>46400</v>
       </c>
       <c r="G273" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H273" s="19"/>
       <c r="I273" s="19"/>
@@ -7278,19 +7287,19 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F274" s="18">
-        <v>31249</v>
+        <v>67440</v>
       </c>
       <c r="G274" s="18">
-        <v>781242</v>
+        <v>1686014</v>
       </c>
       <c r="H274" s="19"/>
       <c r="I274" s="19"/>
@@ -7301,19 +7310,19 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F275" s="18">
-        <v>31249</v>
+        <v>92452</v>
       </c>
       <c r="G275" s="18">
-        <v>781242</v>
+        <v>2311289</v>
       </c>
       <c r="H275" s="19"/>
       <c r="I275" s="19"/>
@@ -7324,19 +7333,19 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="F276" s="18">
-        <v>31249</v>
+        <v>25000</v>
       </c>
       <c r="G276" s="18">
-        <v>781242</v>
+        <v>668000</v>
       </c>
       <c r="H276" s="19"/>
       <c r="I276" s="19"/>
@@ -7347,19 +7356,19 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D277" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E277" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="E277" s="16" t="s">
-        <v>55</v>
-      </c>
       <c r="F277" s="18">
-        <v>36341</v>
+        <v>67440</v>
       </c>
       <c r="G277" s="18">
-        <v>908526</v>
+        <v>1686014</v>
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19"/>
@@ -7370,19 +7379,19 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="F278" s="18">
-        <v>45707</v>
+        <v>67440</v>
       </c>
       <c r="G278" s="18">
-        <v>2016475</v>
+        <v>1686014</v>
       </c>
       <c r="H278" s="19"/>
       <c r="I278" s="19"/>
@@ -7393,19 +7402,19 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E279" s="16" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="F279" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G279" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H279" s="19"/>
       <c r="I279" s="19"/>
@@ -7416,19 +7425,19 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="F280" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G280" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H280" s="19"/>
       <c r="I280" s="19"/>
@@ -7439,19 +7448,19 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="F281" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H281" s="19"/>
       <c r="I281" s="19"/>
@@ -7462,13 +7471,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="F282" s="18">
         <v>46400</v>
@@ -7485,19 +7494,19 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F283" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G283" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H283" s="19"/>
       <c r="I283" s="19"/>
@@ -7508,19 +7517,19 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="F284" s="18">
-        <v>46400</v>
+        <v>92452</v>
       </c>
       <c r="G284" s="18">
-        <v>1160000</v>
+        <v>2311289</v>
       </c>
       <c r="H284" s="19"/>
       <c r="I284" s="19"/>
@@ -7531,19 +7540,19 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="F285" s="18">
-        <v>46400</v>
+        <v>25000</v>
       </c>
       <c r="G285" s="18">
-        <v>1160000</v>
+        <v>668000</v>
       </c>
       <c r="H285" s="19"/>
       <c r="I285" s="19"/>
@@ -7554,19 +7563,19 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="F286" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G286" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H286" s="19"/>
       <c r="I286" s="19"/>
@@ -7577,19 +7586,19 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>25</v>
+        <v>117</v>
       </c>
       <c r="F287" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G287" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H287" s="19"/>
       <c r="I287" s="19"/>
@@ -7600,19 +7609,19 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="F288" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G288" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H288" s="19"/>
       <c r="I288" s="19"/>
@@ -7623,19 +7632,19 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="F289" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G289" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H289" s="19"/>
       <c r="I289" s="19"/>
@@ -7646,19 +7655,19 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="F290" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G290" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H290" s="19"/>
       <c r="I290" s="19"/>
@@ -7669,13 +7678,13 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="F291" s="18">
         <v>46400</v>
@@ -7692,19 +7701,19 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="F292" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G292" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H292" s="19"/>
       <c r="I292" s="19"/>
@@ -7715,19 +7724,19 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F293" s="18">
-        <v>46400</v>
+        <v>92452</v>
       </c>
       <c r="G293" s="18">
-        <v>1160000</v>
+        <v>2311289</v>
       </c>
       <c r="H293" s="19"/>
       <c r="I293" s="19"/>
@@ -7738,19 +7747,19 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="F294" s="18">
-        <v>46400</v>
+        <v>25000</v>
       </c>
       <c r="G294" s="18">
-        <v>1160000</v>
+        <v>668000</v>
       </c>
       <c r="H294" s="19"/>
       <c r="I294" s="19"/>
@@ -7761,19 +7770,19 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="F295" s="18">
-        <v>46400</v>
+        <v>67440</v>
       </c>
       <c r="G295" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H295" s="19"/>
       <c r="I295" s="19"/>
@@ -7784,19 +7793,19 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="F296" s="18">
-        <v>21654</v>
+        <v>67440</v>
       </c>
       <c r="G296" s="18">
-        <v>1160000</v>
+        <v>1686014</v>
       </c>
       <c r="H296" s="19"/>
       <c r="I296" s="19"/>
@@ -7807,19 +7816,19 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F297" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G297" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H297" s="19"/>
       <c r="I297" s="19"/>
@@ -7830,13 +7839,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="F298" s="18">
         <v>67440</v>
@@ -7853,19 +7862,19 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F299" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G299" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H299" s="19"/>
       <c r="I299" s="19"/>
@@ -7876,19 +7885,19 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F300" s="18">
-        <v>67440</v>
+        <v>46400</v>
       </c>
       <c r="G300" s="18">
-        <v>1686014</v>
+        <v>1160000</v>
       </c>
       <c r="H300" s="19"/>
       <c r="I300" s="19"/>
@@ -7899,13 +7908,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="F301" s="18">
         <v>67440</v>
@@ -7922,19 +7931,19 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F302" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G302" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H302" s="19"/>
       <c r="I302" s="19"/>
@@ -7945,19 +7954,19 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F303" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G303" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H303" s="19"/>
       <c r="I303" s="19"/>
@@ -7968,13 +7977,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="F304" s="18">
         <v>67440</v>
@@ -7991,19 +8000,19 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F305" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G305" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H305" s="19"/>
       <c r="I305" s="19"/>
@@ -8014,19 +8023,19 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="F306" s="18">
-        <v>67440</v>
+        <v>31249</v>
       </c>
       <c r="G306" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H306" s="19"/>
       <c r="I306" s="19"/>
@@ -8037,19 +8046,19 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F307" s="18">
-        <v>67440</v>
+        <v>92452</v>
       </c>
       <c r="G307" s="18">
-        <v>1686014</v>
+        <v>2311289</v>
       </c>
       <c r="H307" s="19"/>
       <c r="I307" s="19"/>
@@ -8060,19 +8069,19 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="F308" s="18">
-        <v>67440</v>
+        <v>25000</v>
       </c>
       <c r="G308" s="18">
-        <v>1686014</v>
+        <v>668000</v>
       </c>
       <c r="H308" s="19"/>
       <c r="I308" s="19"/>
@@ -8083,13 +8092,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="F309" s="18">
         <v>67440</v>
@@ -8106,19 +8115,19 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F310" s="18">
-        <v>67440</v>
+        <v>40000</v>
       </c>
       <c r="G310" s="18">
-        <v>1686014</v>
+        <v>1000000</v>
       </c>
       <c r="H310" s="19"/>
       <c r="I310" s="19"/>
@@ -8129,19 +8138,19 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="F311" s="18">
-        <v>38216</v>
+        <v>31249</v>
       </c>
       <c r="G311" s="18">
-        <v>1686014</v>
+        <v>781242</v>
       </c>
       <c r="H311" s="19"/>
       <c r="I311" s="19"/>
@@ -8152,13 +8161,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="F312" s="18">
         <v>92452</v>
@@ -8175,19 +8184,19 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="F313" s="18">
-        <v>92452</v>
+        <v>25000</v>
       </c>
       <c r="G313" s="18">
-        <v>2311289</v>
+        <v>668000</v>
       </c>
       <c r="H313" s="19"/>
       <c r="I313" s="19"/>
@@ -8198,19 +8207,19 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F314" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G314" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H314" s="19"/>
       <c r="I314" s="19"/>
@@ -8221,19 +8230,19 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="F315" s="18">
-        <v>92452</v>
+        <v>40000</v>
       </c>
       <c r="G315" s="18">
-        <v>2311289</v>
+        <v>1000000</v>
       </c>
       <c r="H315" s="19"/>
       <c r="I315" s="19"/>
@@ -8244,19 +8253,19 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="F316" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G316" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H316" s="19"/>
       <c r="I316" s="19"/>
@@ -8267,13 +8276,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="F317" s="18">
         <v>92452</v>
@@ -8290,19 +8299,19 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="F318" s="18">
-        <v>92452</v>
+        <v>25000</v>
       </c>
       <c r="G318" s="18">
-        <v>2311289</v>
+        <v>668000</v>
       </c>
       <c r="H318" s="19"/>
       <c r="I318" s="19"/>
@@ -8313,19 +8322,19 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="F319" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G319" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H319" s="19"/>
       <c r="I319" s="19"/>
@@ -8336,19 +8345,19 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="F320" s="18">
-        <v>92452</v>
+        <v>40000</v>
       </c>
       <c r="G320" s="18">
-        <v>2311289</v>
+        <v>1000000</v>
       </c>
       <c r="H320" s="19"/>
       <c r="I320" s="19"/>
@@ -8359,19 +8368,19 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F321" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G321" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H321" s="19"/>
       <c r="I321" s="19"/>
@@ -8382,13 +8391,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="F322" s="18">
         <v>92452</v>
@@ -8405,19 +8414,19 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D323" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E323" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D323" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E323" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F323" s="18">
-        <v>92452</v>
+        <v>25000</v>
       </c>
       <c r="G323" s="18">
-        <v>2311289</v>
+        <v>668000</v>
       </c>
       <c r="H323" s="19"/>
       <c r="I323" s="19"/>
@@ -8428,19 +8437,19 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E324" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E324" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F324" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G324" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H324" s="19"/>
       <c r="I324" s="19"/>
@@ -8451,19 +8460,19 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D325" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E325" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E325" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F325" s="18">
-        <v>92452</v>
+        <v>40000</v>
       </c>
       <c r="G325" s="18">
-        <v>2311289</v>
+        <v>1000000</v>
       </c>
       <c r="H325" s="19"/>
       <c r="I325" s="19"/>
@@ -8474,19 +8483,19 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D326" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E326" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D326" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E326" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="F326" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G326" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H326" s="19"/>
       <c r="I326" s="19"/>
@@ -8497,13 +8506,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D327" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E327" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="E327" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F327" s="18">
         <v>92452</v>
@@ -8520,19 +8529,19 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="D328" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E328" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E328" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F328" s="18">
-        <v>92452</v>
+        <v>25000</v>
       </c>
       <c r="G328" s="18">
-        <v>2311289</v>
+        <v>668000</v>
       </c>
       <c r="H328" s="19"/>
       <c r="I328" s="19"/>
@@ -8543,19 +8552,19 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="D329" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E329" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E329" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F329" s="18">
-        <v>92452</v>
+        <v>67440</v>
       </c>
       <c r="G329" s="18">
-        <v>2311289</v>
+        <v>1686014</v>
       </c>
       <c r="H329" s="19"/>
       <c r="I329" s="19"/>
@@ -8566,19 +8575,19 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="D330" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E330" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E330" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F330" s="18">
-        <v>92452</v>
+        <v>40000</v>
       </c>
       <c r="G330" s="18">
-        <v>2311289</v>
+        <v>1000000</v>
       </c>
       <c r="H330" s="19"/>
       <c r="I330" s="19"/>
@@ -8589,75 +8598,213 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="D331" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E331" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E331" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F331" s="18">
-        <v>92452</v>
+        <v>31249</v>
       </c>
       <c r="G331" s="18">
-        <v>2311289</v>
+        <v>781242</v>
       </c>
       <c r="H331" s="19"/>
       <c r="I331" s="19"/>
       <c r="J331" s="20"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B332" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C332" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D332" s="23" t="s">
+      <c r="B332" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D332" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E332" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E332" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F332" s="24">
+      <c r="F332" s="18">
         <v>92452</v>
       </c>
-      <c r="G332" s="24">
+      <c r="G332" s="18">
         <v>2311289</v>
       </c>
-      <c r="H332" s="25"/>
-      <c r="I332" s="25"/>
-      <c r="J332" s="26"/>
+      <c r="H332" s="19"/>
+      <c r="I332" s="19"/>
+      <c r="J332" s="20"/>
+    </row>
+    <row r="333" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B333" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F333" s="18">
+        <v>25000</v>
+      </c>
+      <c r="G333" s="18">
+        <v>668000</v>
+      </c>
+      <c r="H333" s="19"/>
+      <c r="I333" s="19"/>
+      <c r="J333" s="20"/>
+    </row>
+    <row r="334" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B334" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F334" s="18">
+        <v>109285</v>
+      </c>
+      <c r="G334" s="18">
+        <v>2732118</v>
+      </c>
+      <c r="H334" s="19"/>
+      <c r="I334" s="19"/>
+      <c r="J334" s="20"/>
+    </row>
+    <row r="335" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B335" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F335" s="18">
+        <v>67440</v>
+      </c>
+      <c r="G335" s="18">
+        <v>1686014</v>
+      </c>
+      <c r="H335" s="19"/>
+      <c r="I335" s="19"/>
+      <c r="J335" s="20"/>
+    </row>
+    <row r="336" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B336" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F336" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G336" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H336" s="19"/>
+      <c r="I336" s="19"/>
+      <c r="J336" s="20"/>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B337" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C337" s="32"/>
-      <c r="H337" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
+      <c r="B337" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D337" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F337" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G337" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H337" s="19"/>
+      <c r="I337" s="19"/>
+      <c r="J337" s="20"/>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C338" s="32"/>
-      <c r="H338" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
+      <c r="B338" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D338" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E338" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="F338" s="24">
+        <v>92452</v>
+      </c>
+      <c r="G338" s="24">
+        <v>2311289</v>
+      </c>
+      <c r="H338" s="25"/>
+      <c r="I338" s="25"/>
+      <c r="J338" s="26"/>
+    </row>
+    <row r="343" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B343" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C343" s="32"/>
+      <c r="H343" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B344" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C344" s="32"/>
+      <c r="H344" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="H338:J338"/>
-    <mergeCell ref="H337:J337"/>
+    <mergeCell ref="B344:C344"/>
+    <mergeCell ref="B343:C343"/>
+    <mergeCell ref="H344:J344"/>
+    <mergeCell ref="H343:J343"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-8924006439.xlsx
+++ b/Data/EC/NIT-8924006439.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5147B8D-3003-42F0-863A-2336CBC3821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFA577DE-369F-4523-862C-B77CD087FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0B56E64-52C9-4B93-B7F5-A703BAB60B40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{31C22755-22CE-4964-9ABC-F08A9591414B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="140">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -420,6 +420,9 @@
   </si>
   <si>
     <t>MIGUEL ANGEL RUIZ VANEGAS</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,9 +521,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -533,7 +534,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -727,29 +730,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -768,19 +771,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,7 +842,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594F60CE-18EA-D1E4-AC06-A9358AE43F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5D8D5D-5436-3087-4928-322E8CD337B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1184,8 +1193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB645B19-1F22-4BAA-B753-B1149BCAD9DC}">
-  <dimension ref="B2:J344"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8828EFF-1FF9-4AF0-80AF-A0BE5A490980}">
+  <dimension ref="B2:J350"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1207,57 +1216,57 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1273,7 +1282,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>8924006439</v>
       </c>
@@ -1286,12 +1295,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>13967454</v>
+        <v>14332880</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1302,17 +1311,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="5">
         <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1339,13 +1348,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1358,18 +1367,18 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>46216</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1155381</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
@@ -1381,18 +1390,18 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G17" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="F17" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G17" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
@@ -1404,18 +1413,18 @@
       <c r="D18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G18" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
+      <c r="F18" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G18" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
@@ -1427,18 +1436,18 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G19" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
+      <c r="F19" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G19" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
@@ -1450,18 +1459,18 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G20" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
+      <c r="F20" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G20" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
@@ -1473,18 +1482,18 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G21" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G21" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
@@ -1496,18 +1505,18 @@
       <c r="D22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G22" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G22" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
@@ -1519,18 +1528,18 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G23" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G23" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
@@ -1542,18 +1551,18 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G24" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G24" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
@@ -1565,18 +1574,18 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G25" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G25" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
@@ -1588,18 +1597,18 @@
       <c r="D26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G26" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="F26" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G26" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
@@ -1611,18 +1620,18 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G27" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="F27" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G27" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
@@ -1634,18 +1643,18 @@
       <c r="D28" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>25000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>668000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
@@ -1657,18 +1666,18 @@
       <c r="D29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G29" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
+      <c r="F29" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G29" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
@@ -1680,18 +1689,18 @@
       <c r="D30" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>25000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>668000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
@@ -1703,18 +1712,18 @@
       <c r="D31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G31" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="F31" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G31" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
@@ -1726,18 +1735,18 @@
       <c r="D32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>25000</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>668000</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
@@ -1749,18 +1758,18 @@
       <c r="D33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G33" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
+      <c r="F33" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G33" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
@@ -1772,18 +1781,18 @@
       <c r="D34" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>25000</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>668000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
@@ -1795,18 +1804,18 @@
       <c r="D35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G35" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="F35" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G35" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
@@ -1818,18 +1827,18 @@
       <c r="D36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>25000</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>668000</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
@@ -1841,18 +1850,18 @@
       <c r="D37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G37" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
+      <c r="F37" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G37" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
@@ -1864,18 +1873,18 @@
       <c r="D38" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>25000</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>668000</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
@@ -1887,18 +1896,18 @@
       <c r="D39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G39" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
+      <c r="F39" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G39" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
@@ -1910,18 +1919,18 @@
       <c r="D40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>25000</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>668000</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
@@ -1933,18 +1942,18 @@
       <c r="D41" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G41" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="F41" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G41" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
@@ -1956,18 +1965,18 @@
       <c r="D42" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>25000</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>668000</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
@@ -1979,18 +1988,18 @@
       <c r="D43" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G43" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
+      <c r="F43" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G43" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
@@ -2002,18 +2011,18 @@
       <c r="D44" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>25000</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>668000</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
@@ -2025,18 +2034,18 @@
       <c r="D45" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G45" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="F45" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G45" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
@@ -2048,18 +2057,18 @@
       <c r="D46" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="18">
+      <c r="F46" s="19">
         <v>25000</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G46" s="19">
         <v>668000</v>
       </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
@@ -2071,18 +2080,18 @@
       <c r="D47" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F47" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G47" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
+      <c r="F47" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G47" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
@@ -2094,18 +2103,18 @@
       <c r="D48" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="18">
+      <c r="F48" s="19">
         <v>25000</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G48" s="19">
         <v>668000</v>
       </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
@@ -2117,18 +2126,18 @@
       <c r="D49" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G49" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
+      <c r="F49" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G49" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
@@ -2140,18 +2149,18 @@
       <c r="D50" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="18">
+      <c r="F50" s="19">
         <v>25000</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G50" s="19">
         <v>668000</v>
       </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
@@ -2163,18 +2172,18 @@
       <c r="D51" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G51" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
+      <c r="F51" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G51" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
@@ -2186,18 +2195,18 @@
       <c r="D52" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="18">
+      <c r="F52" s="19">
         <v>25000</v>
       </c>
-      <c r="G52" s="18">
+      <c r="G52" s="19">
         <v>668000</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
@@ -2209,18 +2218,18 @@
       <c r="D53" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G53" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="F53" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G53" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
@@ -2232,18 +2241,18 @@
       <c r="D54" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F54" s="18">
+      <c r="F54" s="19">
         <v>25000</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G54" s="19">
         <v>668000</v>
       </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
@@ -2255,18 +2264,18 @@
       <c r="D55" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G55" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
+      <c r="F55" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G55" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
@@ -2278,18 +2287,18 @@
       <c r="D56" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F56" s="18">
+      <c r="F56" s="19">
         <v>25000</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G56" s="19">
         <v>668000</v>
       </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
@@ -2301,18 +2310,18 @@
       <c r="D57" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F57" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G57" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
+      <c r="F57" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G57" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
@@ -2324,18 +2333,18 @@
       <c r="D58" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="19">
         <v>25000</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="19">
         <v>668000</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
@@ -2347,18 +2356,18 @@
       <c r="D59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G59" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F59" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G59" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
@@ -2370,18 +2379,18 @@
       <c r="D60" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="19">
         <v>25000</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="19">
         <v>668000</v>
       </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
@@ -2393,18 +2402,18 @@
       <c r="D61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G61" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
+      <c r="F61" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G61" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
@@ -2416,18 +2425,18 @@
       <c r="D62" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="19">
         <v>25000</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="19">
         <v>668000</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
@@ -2439,18 +2448,18 @@
       <c r="D63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G63" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
+      <c r="F63" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G63" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
@@ -2462,18 +2471,18 @@
       <c r="D64" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="19">
         <v>25000</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="19">
         <v>668000</v>
       </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
@@ -2485,18 +2494,18 @@
       <c r="D65" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G65" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
+      <c r="F65" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G65" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
@@ -2508,18 +2517,18 @@
       <c r="D66" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="19">
         <v>25000</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="19">
         <v>668000</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
@@ -2531,18 +2540,18 @@
       <c r="D67" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G67" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
+      <c r="F67" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G67" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
@@ -2554,18 +2563,18 @@
       <c r="D68" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="19">
         <v>25000</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="19">
         <v>668000</v>
       </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
@@ -2577,18 +2586,18 @@
       <c r="D69" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G69" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
+      <c r="F69" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G69" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
@@ -2600,18 +2609,18 @@
       <c r="D70" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="19">
         <v>25000</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="19">
         <v>668000</v>
       </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
@@ -2623,18 +2632,18 @@
       <c r="D71" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F71" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G71" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
+      <c r="F71" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G71" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
@@ -2646,18 +2655,18 @@
       <c r="D72" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="19">
         <v>25000</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="19">
         <v>668000</v>
       </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
@@ -2669,18 +2678,18 @@
       <c r="D73" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G73" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
+      <c r="F73" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G73" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
@@ -2692,18 +2701,18 @@
       <c r="D74" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="19">
         <v>25000</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="19">
         <v>668000</v>
       </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
@@ -2715,18 +2724,18 @@
       <c r="D75" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G75" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
+      <c r="F75" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G75" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
@@ -2738,18 +2747,18 @@
       <c r="D76" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="19">
         <v>25000</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="19">
         <v>668000</v>
       </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
@@ -2761,18 +2770,18 @@
       <c r="D77" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G77" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
+      <c r="F77" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G77" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
@@ -2784,18 +2793,18 @@
       <c r="D78" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="19">
         <v>25000</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="19">
         <v>668000</v>
       </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
@@ -2807,18 +2816,18 @@
       <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F79" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G79" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
+      <c r="F79" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G79" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
@@ -2830,18 +2839,18 @@
       <c r="D80" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="19">
         <v>25000</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="19">
         <v>668000</v>
       </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
@@ -2853,18 +2862,18 @@
       <c r="D81" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F81" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G81" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
+      <c r="F81" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G81" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
@@ -2876,18 +2885,18 @@
       <c r="D82" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="18">
+      <c r="F82" s="19">
         <v>25000</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G82" s="19">
         <v>668000</v>
       </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
@@ -2899,18 +2908,18 @@
       <c r="D83" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F83" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G83" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
+      <c r="F83" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G83" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
@@ -2922,18 +2931,18 @@
       <c r="D84" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F84" s="18">
+      <c r="F84" s="19">
         <v>25000</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G84" s="19">
         <v>668000</v>
       </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
@@ -2945,18 +2954,18 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G85" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
+      <c r="F85" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G85" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
@@ -2968,18 +2977,18 @@
       <c r="D86" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F86" s="18">
+      <c r="F86" s="19">
         <v>25000</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G86" s="19">
         <v>668000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
@@ -2991,18 +3000,18 @@
       <c r="D87" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F87" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G87" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G87" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
@@ -3014,18 +3023,18 @@
       <c r="D88" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F88" s="18">
+      <c r="F88" s="19">
         <v>25000</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G88" s="19">
         <v>668000</v>
       </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
@@ -3037,18 +3046,18 @@
       <c r="D89" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F89" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G89" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="F89" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G89" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
@@ -3060,18 +3069,18 @@
       <c r="D90" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F90" s="18">
+      <c r="F90" s="19">
         <v>25000</v>
       </c>
-      <c r="G90" s="18">
+      <c r="G90" s="19">
         <v>668000</v>
       </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
@@ -3083,18 +3092,18 @@
       <c r="D91" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F91" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G91" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+      <c r="F91" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G91" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
@@ -3106,18 +3115,18 @@
       <c r="D92" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="19">
         <v>25000</v>
       </c>
-      <c r="G92" s="18">
+      <c r="G92" s="19">
         <v>668000</v>
       </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
@@ -3129,18 +3138,18 @@
       <c r="D93" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F93" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G93" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="F93" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G93" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
@@ -3152,18 +3161,18 @@
       <c r="D94" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F94" s="18">
+      <c r="F94" s="19">
         <v>25000</v>
       </c>
-      <c r="G94" s="18">
+      <c r="G94" s="19">
         <v>668000</v>
       </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
@@ -3175,18 +3184,18 @@
       <c r="D95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F95" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G95" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
+      <c r="F95" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G95" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
@@ -3198,18 +3207,18 @@
       <c r="D96" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F96" s="18">
+      <c r="F96" s="19">
         <v>25000</v>
       </c>
-      <c r="G96" s="18">
+      <c r="G96" s="19">
         <v>668000</v>
       </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
@@ -3221,18 +3230,18 @@
       <c r="D97" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F97" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G97" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
+      <c r="F97" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G97" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
@@ -3244,18 +3253,18 @@
       <c r="D98" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="19">
         <v>36341</v>
       </c>
-      <c r="G98" s="18">
+      <c r="G98" s="19">
         <v>908526</v>
       </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
@@ -3267,18 +3276,18 @@
       <c r="D99" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F99" s="18">
+      <c r="F99" s="19">
         <v>25000</v>
       </c>
-      <c r="G99" s="18">
+      <c r="G99" s="19">
         <v>668000</v>
       </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
@@ -3290,18 +3299,18 @@
       <c r="D100" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F100" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
+      <c r="F100" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G100" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
@@ -3313,18 +3322,18 @@
       <c r="D101" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F101" s="18">
+      <c r="F101" s="19">
         <v>25000</v>
       </c>
-      <c r="G101" s="18">
+      <c r="G101" s="19">
         <v>668000</v>
       </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
@@ -3336,18 +3345,18 @@
       <c r="D102" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F102" s="18">
+      <c r="F102" s="19">
         <v>16000</v>
       </c>
-      <c r="G102" s="18">
+      <c r="G102" s="19">
         <v>1000000</v>
       </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
@@ -3359,18 +3368,18 @@
       <c r="D103" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F103" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
+      <c r="F103" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G103" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
@@ -3382,18 +3391,18 @@
       <c r="D104" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="18">
+      <c r="F104" s="19">
         <v>25000</v>
       </c>
-      <c r="G104" s="18">
+      <c r="G104" s="19">
         <v>668000</v>
       </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
@@ -3405,18 +3414,18 @@
       <c r="D105" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
+      <c r="F105" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G105" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
@@ -3428,18 +3437,18 @@
       <c r="D106" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F106" s="18">
+      <c r="F106" s="19">
         <v>25000</v>
       </c>
-      <c r="G106" s="18">
+      <c r="G106" s="19">
         <v>668000</v>
       </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
@@ -3451,18 +3460,18 @@
       <c r="D107" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F107" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
+      <c r="F107" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G107" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
@@ -3474,18 +3483,18 @@
       <c r="D108" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="19">
         <v>25000</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="19">
         <v>668000</v>
       </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
@@ -3497,18 +3506,18 @@
       <c r="D109" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="19">
         <v>40000</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="19">
         <v>1000000</v>
       </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
@@ -3520,18 +3529,18 @@
       <c r="D110" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F110" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
+      <c r="F110" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G110" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
@@ -3543,18 +3552,18 @@
       <c r="D111" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="19">
         <v>25000</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="19">
         <v>668000</v>
       </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
@@ -3566,18 +3575,18 @@
       <c r="D112" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="19">
         <v>40000</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="19">
         <v>1000000</v>
       </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
@@ -3589,18 +3598,18 @@
       <c r="D113" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F113" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
+      <c r="F113" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G113" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
@@ -3612,18 +3621,18 @@
       <c r="D114" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="19">
         <v>25000</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="19">
         <v>668000</v>
       </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
@@ -3635,18 +3644,18 @@
       <c r="D115" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="19">
         <v>40000</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="19">
         <v>1000000</v>
       </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
@@ -3658,18 +3667,18 @@
       <c r="D116" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F116" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G116" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
+      <c r="F116" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G116" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
@@ -3681,18 +3690,18 @@
       <c r="D117" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="19">
         <v>25000</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="19">
         <v>668000</v>
       </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
@@ -3704,18 +3713,18 @@
       <c r="D118" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="19">
         <v>40000</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="19">
         <v>1000000</v>
       </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
@@ -3727,18 +3736,18 @@
       <c r="D119" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F119" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G119" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
+      <c r="F119" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G119" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
@@ -3750,18 +3759,18 @@
       <c r="D120" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="19">
         <v>25000</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="19">
         <v>668000</v>
       </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
@@ -3773,18 +3782,18 @@
       <c r="D121" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="19">
         <v>40000</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="19">
         <v>1000000</v>
       </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
@@ -3796,18 +3805,18 @@
       <c r="D122" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
+      <c r="F122" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H122" s="20"/>
+      <c r="I122" s="20"/>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
@@ -3819,18 +3828,18 @@
       <c r="D123" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F123" s="18">
+      <c r="F123" s="19">
         <v>45707</v>
       </c>
-      <c r="G123" s="18">
+      <c r="G123" s="19">
         <v>2016475</v>
       </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="20"/>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
@@ -3842,18 +3851,18 @@
       <c r="D124" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E124" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F124" s="18">
+      <c r="F124" s="19">
         <v>25000</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="19">
         <v>668000</v>
       </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
+      <c r="H124" s="20"/>
+      <c r="I124" s="20"/>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
@@ -3865,18 +3874,18 @@
       <c r="D125" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="16" t="s">
+      <c r="E125" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F125" s="18">
+      <c r="F125" s="19">
         <v>40000</v>
       </c>
-      <c r="G125" s="18">
+      <c r="G125" s="19">
         <v>1000000</v>
       </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
+      <c r="H125" s="20"/>
+      <c r="I125" s="20"/>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
@@ -3888,18 +3897,18 @@
       <c r="D126" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="E126" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
+      <c r="F126" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H126" s="20"/>
+      <c r="I126" s="20"/>
+      <c r="J126" s="21"/>
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
@@ -3911,18 +3920,18 @@
       <c r="D127" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="E127" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F127" s="18">
+      <c r="F127" s="19">
         <v>25000</v>
       </c>
-      <c r="G127" s="18">
+      <c r="G127" s="19">
         <v>668000</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
+      <c r="H127" s="20"/>
+      <c r="I127" s="20"/>
+      <c r="J127" s="21"/>
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
@@ -3934,18 +3943,18 @@
       <c r="D128" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E128" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F128" s="19">
         <v>40000</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G128" s="19">
         <v>1000000</v>
       </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="20"/>
+      <c r="J128" s="21"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
@@ -3957,18 +3966,18 @@
       <c r="D129" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E129" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
+      <c r="F129" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H129" s="20"/>
+      <c r="I129" s="20"/>
+      <c r="J129" s="21"/>
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
@@ -3980,18 +3989,18 @@
       <c r="D130" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E130" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F130" s="18">
+      <c r="F130" s="19">
         <v>25000</v>
       </c>
-      <c r="G130" s="18">
+      <c r="G130" s="19">
         <v>668000</v>
       </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
+      <c r="H130" s="20"/>
+      <c r="I130" s="20"/>
+      <c r="J130" s="21"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
@@ -4003,18 +4012,18 @@
       <c r="D131" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="E131" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F131" s="18">
+      <c r="F131" s="19">
         <v>40000</v>
       </c>
-      <c r="G131" s="18">
+      <c r="G131" s="19">
         <v>1000000</v>
       </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
+      <c r="H131" s="20"/>
+      <c r="I131" s="20"/>
+      <c r="J131" s="21"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
@@ -4026,18 +4035,18 @@
       <c r="D132" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="E132" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
+      <c r="F132" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H132" s="20"/>
+      <c r="I132" s="20"/>
+      <c r="J132" s="21"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
@@ -4049,18 +4058,18 @@
       <c r="D133" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E133" s="16" t="s">
+      <c r="E133" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F133" s="18">
+      <c r="F133" s="19">
         <v>25000</v>
       </c>
-      <c r="G133" s="18">
+      <c r="G133" s="19">
         <v>668000</v>
       </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
+      <c r="H133" s="20"/>
+      <c r="I133" s="20"/>
+      <c r="J133" s="21"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
@@ -4072,18 +4081,18 @@
       <c r="D134" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E134" s="16" t="s">
+      <c r="E134" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F134" s="18">
+      <c r="F134" s="19">
         <v>40000</v>
       </c>
-      <c r="G134" s="18">
+      <c r="G134" s="19">
         <v>1000000</v>
       </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="21"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
@@ -4095,18 +4104,18 @@
       <c r="D135" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E135" s="16" t="s">
+      <c r="E135" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
+      <c r="F135" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H135" s="20"/>
+      <c r="I135" s="20"/>
+      <c r="J135" s="21"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
@@ -4118,18 +4127,18 @@
       <c r="D136" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E136" s="16" t="s">
+      <c r="E136" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F136" s="18">
+      <c r="F136" s="19">
         <v>25000</v>
       </c>
-      <c r="G136" s="18">
+      <c r="G136" s="19">
         <v>668000</v>
       </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
+      <c r="H136" s="20"/>
+      <c r="I136" s="20"/>
+      <c r="J136" s="21"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
@@ -4141,18 +4150,18 @@
       <c r="D137" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E137" s="16" t="s">
+      <c r="E137" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F137" s="18">
+      <c r="F137" s="19">
         <v>40000</v>
       </c>
-      <c r="G137" s="18">
+      <c r="G137" s="19">
         <v>1000000</v>
       </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
+      <c r="H137" s="20"/>
+      <c r="I137" s="20"/>
+      <c r="J137" s="21"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
@@ -4164,18 +4173,18 @@
       <c r="D138" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="E138" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F138" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
+      <c r="F138" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H138" s="20"/>
+      <c r="I138" s="20"/>
+      <c r="J138" s="21"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
@@ -4187,18 +4196,18 @@
       <c r="D139" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E139" s="16" t="s">
+      <c r="E139" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="19">
         <v>25000</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="19">
         <v>668000</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="21"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
@@ -4210,18 +4219,18 @@
       <c r="D140" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E140" s="16" t="s">
+      <c r="E140" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="19">
         <v>40000</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="19">
         <v>1000000</v>
       </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
+      <c r="H140" s="20"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="21"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B141" s="15" t="s">
@@ -4233,18 +4242,18 @@
       <c r="D141" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E141" s="16" t="s">
+      <c r="E141" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
+      <c r="F141" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B142" s="15" t="s">
@@ -4256,18 +4265,18 @@
       <c r="D142" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="19">
         <v>25000</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="19">
         <v>668000</v>
       </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
+      <c r="H142" s="20"/>
+      <c r="I142" s="20"/>
+      <c r="J142" s="21"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B143" s="15" t="s">
@@ -4279,18 +4288,18 @@
       <c r="D143" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E143" s="16" t="s">
+      <c r="E143" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="19">
         <v>40000</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="19">
         <v>1000000</v>
       </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H143" s="20"/>
+      <c r="I143" s="20"/>
+      <c r="J143" s="21"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B144" s="15" t="s">
@@ -4302,18 +4311,18 @@
       <c r="D144" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="16" t="s">
+      <c r="E144" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F144" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G144" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="F144" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G144" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H144" s="20"/>
+      <c r="I144" s="20"/>
+      <c r="J144" s="21"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B145" s="15" t="s">
@@ -4325,18 +4334,18 @@
       <c r="D145" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E145" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F145" s="18">
+      <c r="F145" s="19">
         <v>25000</v>
       </c>
-      <c r="G145" s="18">
+      <c r="G145" s="19">
         <v>668000</v>
       </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
+      <c r="H145" s="20"/>
+      <c r="I145" s="20"/>
+      <c r="J145" s="21"/>
     </row>
     <row r="146" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B146" s="15" t="s">
@@ -4348,18 +4357,18 @@
       <c r="D146" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E146" s="16" t="s">
+      <c r="E146" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="19">
         <v>40000</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G146" s="19">
         <v>1000000</v>
       </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
+      <c r="H146" s="20"/>
+      <c r="I146" s="20"/>
+      <c r="J146" s="21"/>
     </row>
     <row r="147" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B147" s="15" t="s">
@@ -4371,18 +4380,18 @@
       <c r="D147" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="16" t="s">
+      <c r="E147" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F147" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G147" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
+      <c r="F147" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G147" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H147" s="20"/>
+      <c r="I147" s="20"/>
+      <c r="J147" s="21"/>
     </row>
     <row r="148" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B148" s="15" t="s">
@@ -4394,18 +4403,18 @@
       <c r="D148" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E148" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="19">
         <v>25000</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G148" s="19">
         <v>668000</v>
       </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
+      <c r="H148" s="20"/>
+      <c r="I148" s="20"/>
+      <c r="J148" s="21"/>
     </row>
     <row r="149" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B149" s="15" t="s">
@@ -4417,18 +4426,18 @@
       <c r="D149" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="16" t="s">
+      <c r="E149" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F149" s="18">
+      <c r="F149" s="19">
         <v>40000</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G149" s="19">
         <v>1000000</v>
       </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
+      <c r="H149" s="20"/>
+      <c r="I149" s="20"/>
+      <c r="J149" s="21"/>
     </row>
     <row r="150" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B150" s="15" t="s">
@@ -4440,18 +4449,18 @@
       <c r="D150" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="16" t="s">
+      <c r="E150" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F150" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G150" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
+      <c r="F150" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G150" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H150" s="20"/>
+      <c r="I150" s="20"/>
+      <c r="J150" s="21"/>
     </row>
     <row r="151" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B151" s="15" t="s">
@@ -4463,18 +4472,18 @@
       <c r="D151" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E151" s="16" t="s">
+      <c r="E151" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="19">
         <v>25000</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="19">
         <v>668000</v>
       </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
+      <c r="H151" s="20"/>
+      <c r="I151" s="20"/>
+      <c r="J151" s="21"/>
     </row>
     <row r="152" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B152" s="15" t="s">
@@ -4486,18 +4495,18 @@
       <c r="D152" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E152" s="16" t="s">
+      <c r="E152" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="19">
         <v>40000</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="19">
         <v>1000000</v>
       </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
+      <c r="H152" s="20"/>
+      <c r="I152" s="20"/>
+      <c r="J152" s="21"/>
     </row>
     <row r="153" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B153" s="15" t="s">
@@ -4509,18 +4518,18 @@
       <c r="D153" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E153" s="16" t="s">
+      <c r="E153" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F153" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G153" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
+      <c r="F153" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G153" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H153" s="20"/>
+      <c r="I153" s="20"/>
+      <c r="J153" s="21"/>
     </row>
     <row r="154" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B154" s="15" t="s">
@@ -4532,18 +4541,18 @@
       <c r="D154" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E154" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="19">
         <v>25000</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="19">
         <v>668000</v>
       </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
+      <c r="H154" s="20"/>
+      <c r="I154" s="20"/>
+      <c r="J154" s="21"/>
     </row>
     <row r="155" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B155" s="15" t="s">
@@ -4555,18 +4564,18 @@
       <c r="D155" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E155" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F155" s="18">
+      <c r="F155" s="19">
         <v>40000</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="19">
         <v>1000000</v>
       </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
+      <c r="H155" s="20"/>
+      <c r="I155" s="20"/>
+      <c r="J155" s="21"/>
     </row>
     <row r="156" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B156" s="15" t="s">
@@ -4578,18 +4587,18 @@
       <c r="D156" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E156" s="16" t="s">
+      <c r="E156" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F156" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G156" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
+      <c r="F156" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G156" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H156" s="20"/>
+      <c r="I156" s="20"/>
+      <c r="J156" s="21"/>
     </row>
     <row r="157" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B157" s="15" t="s">
@@ -4601,18 +4610,18 @@
       <c r="D157" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E157" s="16" t="s">
+      <c r="E157" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F157" s="18">
+      <c r="F157" s="19">
         <v>25000</v>
       </c>
-      <c r="G157" s="18">
+      <c r="G157" s="19">
         <v>668000</v>
       </c>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="20"/>
+      <c r="H157" s="20"/>
+      <c r="I157" s="20"/>
+      <c r="J157" s="21"/>
     </row>
     <row r="158" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B158" s="15" t="s">
@@ -4624,18 +4633,18 @@
       <c r="D158" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E158" s="16" t="s">
+      <c r="E158" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="19">
         <v>31472</v>
       </c>
-      <c r="G158" s="18">
+      <c r="G158" s="19">
         <v>1686014</v>
       </c>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
+      <c r="J158" s="21"/>
     </row>
     <row r="159" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B159" s="15" t="s">
@@ -4647,18 +4656,18 @@
       <c r="D159" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E159" s="16" t="s">
+      <c r="E159" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="19">
         <v>40000</v>
       </c>
-      <c r="G159" s="18">
+      <c r="G159" s="19">
         <v>1000000</v>
       </c>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
+      <c r="J159" s="21"/>
     </row>
     <row r="160" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B160" s="15" t="s">
@@ -4670,18 +4679,18 @@
       <c r="D160" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E160" s="16" t="s">
+      <c r="E160" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F160" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G160" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="20"/>
+      <c r="F160" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G160" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
+      <c r="J160" s="21"/>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B161" s="15" t="s">
@@ -4693,18 +4702,18 @@
       <c r="D161" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="E161" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F161" s="18">
+      <c r="F161" s="19">
         <v>21654</v>
       </c>
-      <c r="G161" s="18">
+      <c r="G161" s="19">
         <v>1160000</v>
       </c>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
+      <c r="J161" s="21"/>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B162" s="15" t="s">
@@ -4716,18 +4725,18 @@
       <c r="D162" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="19">
         <v>25000</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G162" s="19">
         <v>668000</v>
       </c>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="20"/>
+      <c r="H162" s="20"/>
+      <c r="I162" s="20"/>
+      <c r="J162" s="21"/>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B163" s="15" t="s">
@@ -4739,18 +4748,18 @@
       <c r="D163" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E163" s="16" t="s">
+      <c r="E163" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F163" s="18">
+      <c r="F163" s="19">
         <v>67440</v>
       </c>
-      <c r="G163" s="18">
+      <c r="G163" s="19">
         <v>1686014</v>
       </c>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="20"/>
+      <c r="H163" s="20"/>
+      <c r="I163" s="20"/>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B164" s="15" t="s">
@@ -4762,18 +4771,18 @@
       <c r="D164" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="E164" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F164" s="18">
+      <c r="F164" s="19">
         <v>40000</v>
       </c>
-      <c r="G164" s="18">
+      <c r="G164" s="19">
         <v>1000000</v>
       </c>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="20"/>
+      <c r="J164" s="21"/>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B165" s="15" t="s">
@@ -4785,18 +4794,18 @@
       <c r="D165" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="E165" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F165" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G165" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="20"/>
+      <c r="F165" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G165" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H165" s="20"/>
+      <c r="I165" s="20"/>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B166" s="15" t="s">
@@ -4808,18 +4817,18 @@
       <c r="D166" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E166" s="16" t="s">
+      <c r="E166" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F166" s="18">
+      <c r="F166" s="19">
         <v>46400</v>
       </c>
-      <c r="G166" s="18">
+      <c r="G166" s="19">
         <v>1160000</v>
       </c>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="20"/>
+      <c r="H166" s="20"/>
+      <c r="I166" s="20"/>
+      <c r="J166" s="21"/>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B167" s="15" t="s">
@@ -4831,18 +4840,18 @@
       <c r="D167" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E167" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="19">
         <v>25000</v>
       </c>
-      <c r="G167" s="18">
+      <c r="G167" s="19">
         <v>668000</v>
       </c>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="20"/>
+      <c r="H167" s="20"/>
+      <c r="I167" s="20"/>
+      <c r="J167" s="21"/>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B168" s="15" t="s">
@@ -4854,18 +4863,18 @@
       <c r="D168" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E168" s="16" t="s">
+      <c r="E168" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F168" s="18">
+      <c r="F168" s="19">
         <v>67440</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G168" s="19">
         <v>1686014</v>
       </c>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="20"/>
+      <c r="H168" s="20"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="21"/>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B169" s="15" t="s">
@@ -4877,18 +4886,18 @@
       <c r="D169" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E169" s="16" t="s">
+      <c r="E169" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F169" s="18">
+      <c r="F169" s="19">
         <v>40000</v>
       </c>
-      <c r="G169" s="18">
+      <c r="G169" s="19">
         <v>1000000</v>
       </c>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="20"/>
+      <c r="J169" s="21"/>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B170" s="15" t="s">
@@ -4900,18 +4909,18 @@
       <c r="D170" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="16" t="s">
+      <c r="E170" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F170" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G170" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="20"/>
+      <c r="F170" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G170" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H170" s="20"/>
+      <c r="I170" s="20"/>
+      <c r="J170" s="21"/>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B171" s="15" t="s">
@@ -4923,18 +4932,18 @@
       <c r="D171" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E171" s="16" t="s">
+      <c r="E171" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F171" s="18">
+      <c r="F171" s="19">
         <v>46400</v>
       </c>
-      <c r="G171" s="18">
+      <c r="G171" s="19">
         <v>1160000</v>
       </c>
-      <c r="H171" s="19"/>
-      <c r="I171" s="19"/>
-      <c r="J171" s="20"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="20"/>
+      <c r="J171" s="21"/>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B172" s="15" t="s">
@@ -4946,18 +4955,18 @@
       <c r="D172" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="E172" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F172" s="18">
+      <c r="F172" s="19">
         <v>25000</v>
       </c>
-      <c r="G172" s="18">
+      <c r="G172" s="19">
         <v>668000</v>
       </c>
-      <c r="H172" s="19"/>
-      <c r="I172" s="19"/>
-      <c r="J172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="21"/>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B173" s="15" t="s">
@@ -4969,18 +4978,18 @@
       <c r="D173" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E173" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F173" s="18">
+      <c r="F173" s="19">
         <v>67440</v>
       </c>
-      <c r="G173" s="18">
+      <c r="G173" s="19">
         <v>1686014</v>
       </c>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="21"/>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B174" s="15" t="s">
@@ -4992,18 +5001,18 @@
       <c r="D174" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E174" s="16" t="s">
+      <c r="E174" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F174" s="18">
+      <c r="F174" s="19">
         <v>40000</v>
       </c>
-      <c r="G174" s="18">
+      <c r="G174" s="19">
         <v>1000000</v>
       </c>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="21"/>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B175" s="15" t="s">
@@ -5015,18 +5024,18 @@
       <c r="D175" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="E175" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F175" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G175" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="20"/>
+      <c r="F175" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G175" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="21"/>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B176" s="15" t="s">
@@ -5038,18 +5047,18 @@
       <c r="D176" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E176" s="16" t="s">
+      <c r="E176" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F176" s="18">
+      <c r="F176" s="19">
         <v>46400</v>
       </c>
-      <c r="G176" s="18">
+      <c r="G176" s="19">
         <v>1160000</v>
       </c>
-      <c r="H176" s="19"/>
-      <c r="I176" s="19"/>
-      <c r="J176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="21"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B177" s="15" t="s">
@@ -5061,18 +5070,18 @@
       <c r="D177" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="E177" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F177" s="18">
+      <c r="F177" s="19">
         <v>38216</v>
       </c>
-      <c r="G177" s="18">
+      <c r="G177" s="19">
         <v>1686014</v>
       </c>
-      <c r="H177" s="19"/>
-      <c r="I177" s="19"/>
-      <c r="J177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="21"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B178" s="15" t="s">
@@ -5084,18 +5093,18 @@
       <c r="D178" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="E178" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F178" s="18">
+      <c r="F178" s="19">
         <v>92452</v>
       </c>
-      <c r="G178" s="18">
+      <c r="G178" s="19">
         <v>2311289</v>
       </c>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="21"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B179" s="15" t="s">
@@ -5107,18 +5116,18 @@
       <c r="D179" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E179" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F179" s="18">
+      <c r="F179" s="19">
         <v>25000</v>
       </c>
-      <c r="G179" s="18">
+      <c r="G179" s="19">
         <v>668000</v>
       </c>
-      <c r="H179" s="19"/>
-      <c r="I179" s="19"/>
-      <c r="J179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="21"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B180" s="15" t="s">
@@ -5130,18 +5139,18 @@
       <c r="D180" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="E180" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F180" s="18">
+      <c r="F180" s="19">
         <v>67440</v>
       </c>
-      <c r="G180" s="18">
+      <c r="G180" s="19">
         <v>1686014</v>
       </c>
-      <c r="H180" s="19"/>
-      <c r="I180" s="19"/>
-      <c r="J180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="21"/>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B181" s="15" t="s">
@@ -5153,18 +5162,18 @@
       <c r="D181" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E181" s="16" t="s">
+      <c r="E181" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F181" s="18">
+      <c r="F181" s="19">
         <v>67440</v>
       </c>
-      <c r="G181" s="18">
+      <c r="G181" s="19">
         <v>1686014</v>
       </c>
-      <c r="H181" s="19"/>
-      <c r="I181" s="19"/>
-      <c r="J181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="20"/>
+      <c r="J181" s="21"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B182" s="15" t="s">
@@ -5176,18 +5185,18 @@
       <c r="D182" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="E182" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F182" s="18">
+      <c r="F182" s="19">
         <v>40000</v>
       </c>
-      <c r="G182" s="18">
+      <c r="G182" s="19">
         <v>1000000</v>
       </c>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="20"/>
+      <c r="H182" s="20"/>
+      <c r="I182" s="20"/>
+      <c r="J182" s="21"/>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B183" s="15" t="s">
@@ -5199,18 +5208,18 @@
       <c r="D183" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E183" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F183" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G183" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="20"/>
+      <c r="F183" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G183" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="21"/>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B184" s="15" t="s">
@@ -5222,18 +5231,18 @@
       <c r="D184" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E184" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F184" s="18">
+      <c r="F184" s="19">
         <v>46400</v>
       </c>
-      <c r="G184" s="18">
+      <c r="G184" s="19">
         <v>1160000</v>
       </c>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B185" s="15" t="s">
@@ -5245,18 +5254,18 @@
       <c r="D185" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="E185" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F185" s="18">
+      <c r="F185" s="19">
         <v>67440</v>
       </c>
-      <c r="G185" s="18">
+      <c r="G185" s="19">
         <v>1686014</v>
       </c>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="20"/>
+      <c r="H185" s="20"/>
+      <c r="I185" s="20"/>
+      <c r="J185" s="21"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B186" s="15" t="s">
@@ -5268,18 +5277,18 @@
       <c r="D186" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="E186" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F186" s="18">
+      <c r="F186" s="19">
         <v>92452</v>
       </c>
-      <c r="G186" s="18">
+      <c r="G186" s="19">
         <v>2311289</v>
       </c>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="20"/>
+      <c r="H186" s="20"/>
+      <c r="I186" s="20"/>
+      <c r="J186" s="21"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B187" s="15" t="s">
@@ -5291,18 +5300,18 @@
       <c r="D187" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="E187" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F187" s="18">
+      <c r="F187" s="19">
         <v>25000</v>
       </c>
-      <c r="G187" s="18">
+      <c r="G187" s="19">
         <v>668000</v>
       </c>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="20"/>
+      <c r="H187" s="20"/>
+      <c r="I187" s="20"/>
+      <c r="J187" s="21"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B188" s="15" t="s">
@@ -5314,18 +5323,18 @@
       <c r="D188" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="E188" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F188" s="18">
+      <c r="F188" s="19">
         <v>67440</v>
       </c>
-      <c r="G188" s="18">
+      <c r="G188" s="19">
         <v>1686014</v>
       </c>
-      <c r="H188" s="19"/>
-      <c r="I188" s="19"/>
-      <c r="J188" s="20"/>
+      <c r="H188" s="20"/>
+      <c r="I188" s="20"/>
+      <c r="J188" s="21"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B189" s="15" t="s">
@@ -5337,18 +5346,18 @@
       <c r="D189" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="E189" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F189" s="18">
+      <c r="F189" s="19">
         <v>67440</v>
       </c>
-      <c r="G189" s="18">
+      <c r="G189" s="19">
         <v>1686014</v>
       </c>
-      <c r="H189" s="19"/>
-      <c r="I189" s="19"/>
-      <c r="J189" s="20"/>
+      <c r="H189" s="20"/>
+      <c r="I189" s="20"/>
+      <c r="J189" s="21"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B190" s="15" t="s">
@@ -5360,18 +5369,18 @@
       <c r="D190" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="E190" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F190" s="18">
+      <c r="F190" s="19">
         <v>40000</v>
       </c>
-      <c r="G190" s="18">
+      <c r="G190" s="19">
         <v>1000000</v>
       </c>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="20"/>
+      <c r="H190" s="20"/>
+      <c r="I190" s="20"/>
+      <c r="J190" s="21"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B191" s="15" t="s">
@@ -5383,18 +5392,18 @@
       <c r="D191" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="E191" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F191" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G191" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="20"/>
+      <c r="F191" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G191" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H191" s="20"/>
+      <c r="I191" s="20"/>
+      <c r="J191" s="21"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B192" s="15" t="s">
@@ -5406,18 +5415,18 @@
       <c r="D192" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E192" s="16" t="s">
+      <c r="E192" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F192" s="18">
+      <c r="F192" s="19">
         <v>46400</v>
       </c>
-      <c r="G192" s="18">
+      <c r="G192" s="19">
         <v>1160000</v>
       </c>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="20"/>
+      <c r="H192" s="20"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B193" s="15" t="s">
@@ -5429,18 +5438,18 @@
       <c r="D193" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E193" s="16" t="s">
+      <c r="E193" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F193" s="18">
+      <c r="F193" s="19">
         <v>67440</v>
       </c>
-      <c r="G193" s="18">
+      <c r="G193" s="19">
         <v>1686014</v>
       </c>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="21"/>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B194" s="15" t="s">
@@ -5452,18 +5461,18 @@
       <c r="D194" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E194" s="16" t="s">
+      <c r="E194" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F194" s="18">
+      <c r="F194" s="19">
         <v>92452</v>
       </c>
-      <c r="G194" s="18">
+      <c r="G194" s="19">
         <v>2311289</v>
       </c>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="20"/>
+      <c r="H194" s="20"/>
+      <c r="I194" s="20"/>
+      <c r="J194" s="21"/>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B195" s="15" t="s">
@@ -5475,18 +5484,18 @@
       <c r="D195" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E195" s="16" t="s">
+      <c r="E195" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F195" s="18">
+      <c r="F195" s="19">
         <v>25000</v>
       </c>
-      <c r="G195" s="18">
+      <c r="G195" s="19">
         <v>668000</v>
       </c>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="20"/>
+      <c r="H195" s="20"/>
+      <c r="I195" s="20"/>
+      <c r="J195" s="21"/>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B196" s="15" t="s">
@@ -5498,18 +5507,18 @@
       <c r="D196" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E196" s="16" t="s">
+      <c r="E196" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F196" s="18">
+      <c r="F196" s="19">
         <v>67440</v>
       </c>
-      <c r="G196" s="18">
+      <c r="G196" s="19">
         <v>1686014</v>
       </c>
-      <c r="H196" s="19"/>
-      <c r="I196" s="19"/>
-      <c r="J196" s="20"/>
+      <c r="H196" s="20"/>
+      <c r="I196" s="20"/>
+      <c r="J196" s="21"/>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B197" s="15" t="s">
@@ -5521,18 +5530,18 @@
       <c r="D197" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E197" s="16" t="s">
+      <c r="E197" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F197" s="18">
+      <c r="F197" s="19">
         <v>67440</v>
       </c>
-      <c r="G197" s="18">
+      <c r="G197" s="19">
         <v>1686014</v>
       </c>
-      <c r="H197" s="19"/>
-      <c r="I197" s="19"/>
-      <c r="J197" s="20"/>
+      <c r="H197" s="20"/>
+      <c r="I197" s="20"/>
+      <c r="J197" s="21"/>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B198" s="15" t="s">
@@ -5544,18 +5553,18 @@
       <c r="D198" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E198" s="16" t="s">
+      <c r="E198" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F198" s="18">
+      <c r="F198" s="19">
         <v>40000</v>
       </c>
-      <c r="G198" s="18">
+      <c r="G198" s="19">
         <v>1000000</v>
       </c>
-      <c r="H198" s="19"/>
-      <c r="I198" s="19"/>
-      <c r="J198" s="20"/>
+      <c r="H198" s="20"/>
+      <c r="I198" s="20"/>
+      <c r="J198" s="21"/>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B199" s="15" t="s">
@@ -5567,18 +5576,18 @@
       <c r="D199" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E199" s="16" t="s">
+      <c r="E199" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F199" s="18">
+      <c r="F199" s="19">
         <v>67440</v>
       </c>
-      <c r="G199" s="18">
+      <c r="G199" s="19">
         <v>1686014</v>
       </c>
-      <c r="H199" s="19"/>
-      <c r="I199" s="19"/>
-      <c r="J199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="21"/>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B200" s="15" t="s">
@@ -5590,18 +5599,18 @@
       <c r="D200" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E200" s="16" t="s">
+      <c r="E200" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F200" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G200" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H200" s="19"/>
-      <c r="I200" s="19"/>
-      <c r="J200" s="20"/>
+      <c r="F200" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G200" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H200" s="20"/>
+      <c r="I200" s="20"/>
+      <c r="J200" s="21"/>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B201" s="15" t="s">
@@ -5613,18 +5622,18 @@
       <c r="D201" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E201" s="16" t="s">
+      <c r="E201" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F201" s="18">
+      <c r="F201" s="19">
         <v>46400</v>
       </c>
-      <c r="G201" s="18">
+      <c r="G201" s="19">
         <v>1160000</v>
       </c>
-      <c r="H201" s="19"/>
-      <c r="I201" s="19"/>
-      <c r="J201" s="20"/>
+      <c r="H201" s="20"/>
+      <c r="I201" s="20"/>
+      <c r="J201" s="21"/>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B202" s="15" t="s">
@@ -5636,18 +5645,18 @@
       <c r="D202" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E202" s="16" t="s">
+      <c r="E202" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F202" s="18">
+      <c r="F202" s="19">
         <v>67440</v>
       </c>
-      <c r="G202" s="18">
+      <c r="G202" s="19">
         <v>1686014</v>
       </c>
-      <c r="H202" s="19"/>
-      <c r="I202" s="19"/>
-      <c r="J202" s="20"/>
+      <c r="H202" s="20"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="21"/>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B203" s="15" t="s">
@@ -5659,18 +5668,18 @@
       <c r="D203" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E203" s="16" t="s">
+      <c r="E203" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F203" s="18">
+      <c r="F203" s="19">
         <v>92452</v>
       </c>
-      <c r="G203" s="18">
+      <c r="G203" s="19">
         <v>2311289</v>
       </c>
-      <c r="H203" s="19"/>
-      <c r="I203" s="19"/>
-      <c r="J203" s="20"/>
+      <c r="H203" s="20"/>
+      <c r="I203" s="20"/>
+      <c r="J203" s="21"/>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B204" s="15" t="s">
@@ -5682,18 +5691,18 @@
       <c r="D204" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E204" s="16" t="s">
+      <c r="E204" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F204" s="18">
+      <c r="F204" s="19">
         <v>25000</v>
       </c>
-      <c r="G204" s="18">
+      <c r="G204" s="19">
         <v>668000</v>
       </c>
-      <c r="H204" s="19"/>
-      <c r="I204" s="19"/>
-      <c r="J204" s="20"/>
+      <c r="H204" s="20"/>
+      <c r="I204" s="20"/>
+      <c r="J204" s="21"/>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B205" s="15" t="s">
@@ -5705,18 +5714,18 @@
       <c r="D205" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E205" s="16" t="s">
+      <c r="E205" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F205" s="18">
+      <c r="F205" s="19">
         <v>67440</v>
       </c>
-      <c r="G205" s="18">
+      <c r="G205" s="19">
         <v>1686014</v>
       </c>
-      <c r="H205" s="19"/>
-      <c r="I205" s="19"/>
-      <c r="J205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="21"/>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B206" s="15" t="s">
@@ -5728,18 +5737,18 @@
       <c r="D206" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E206" s="16" t="s">
+      <c r="E206" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F206" s="18">
+      <c r="F206" s="19">
         <v>67440</v>
       </c>
-      <c r="G206" s="18">
+      <c r="G206" s="19">
         <v>1686014</v>
       </c>
-      <c r="H206" s="19"/>
-      <c r="I206" s="19"/>
-      <c r="J206" s="20"/>
+      <c r="H206" s="20"/>
+      <c r="I206" s="20"/>
+      <c r="J206" s="21"/>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B207" s="15" t="s">
@@ -5751,18 +5760,18 @@
       <c r="D207" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E207" s="16" t="s">
+      <c r="E207" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F207" s="18">
+      <c r="F207" s="19">
         <v>40000</v>
       </c>
-      <c r="G207" s="18">
+      <c r="G207" s="19">
         <v>1000000</v>
       </c>
-      <c r="H207" s="19"/>
-      <c r="I207" s="19"/>
-      <c r="J207" s="20"/>
+      <c r="H207" s="20"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="21"/>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B208" s="15" t="s">
@@ -5774,18 +5783,18 @@
       <c r="D208" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E208" s="16" t="s">
+      <c r="E208" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F208" s="18">
+      <c r="F208" s="19">
         <v>67440</v>
       </c>
-      <c r="G208" s="18">
+      <c r="G208" s="19">
         <v>1686014</v>
       </c>
-      <c r="H208" s="19"/>
-      <c r="I208" s="19"/>
-      <c r="J208" s="20"/>
+      <c r="H208" s="20"/>
+      <c r="I208" s="20"/>
+      <c r="J208" s="21"/>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B209" s="15" t="s">
@@ -5797,18 +5806,18 @@
       <c r="D209" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E209" s="16" t="s">
+      <c r="E209" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F209" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G209" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19"/>
-      <c r="J209" s="20"/>
+      <c r="F209" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G209" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H209" s="20"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="21"/>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B210" s="15" t="s">
@@ -5820,18 +5829,18 @@
       <c r="D210" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E210" s="16" t="s">
+      <c r="E210" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F210" s="18">
+      <c r="F210" s="19">
         <v>46400</v>
       </c>
-      <c r="G210" s="18">
+      <c r="G210" s="19">
         <v>1160000</v>
       </c>
-      <c r="H210" s="19"/>
-      <c r="I210" s="19"/>
-      <c r="J210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="21"/>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B211" s="15" t="s">
@@ -5843,18 +5852,18 @@
       <c r="D211" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E211" s="16" t="s">
+      <c r="E211" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F211" s="18">
+      <c r="F211" s="19">
         <v>67440</v>
       </c>
-      <c r="G211" s="18">
+      <c r="G211" s="19">
         <v>1686014</v>
       </c>
-      <c r="H211" s="19"/>
-      <c r="I211" s="19"/>
-      <c r="J211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="21"/>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B212" s="15" t="s">
@@ -5866,18 +5875,18 @@
       <c r="D212" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E212" s="16" t="s">
+      <c r="E212" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F212" s="18">
+      <c r="F212" s="19">
         <v>92452</v>
       </c>
-      <c r="G212" s="18">
+      <c r="G212" s="19">
         <v>2311289</v>
       </c>
-      <c r="H212" s="19"/>
-      <c r="I212" s="19"/>
-      <c r="J212" s="20"/>
+      <c r="H212" s="20"/>
+      <c r="I212" s="20"/>
+      <c r="J212" s="21"/>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B213" s="15" t="s">
@@ -5889,18 +5898,18 @@
       <c r="D213" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E213" s="16" t="s">
+      <c r="E213" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F213" s="18">
+      <c r="F213" s="19">
         <v>25000</v>
       </c>
-      <c r="G213" s="18">
+      <c r="G213" s="19">
         <v>668000</v>
       </c>
-      <c r="H213" s="19"/>
-      <c r="I213" s="19"/>
-      <c r="J213" s="20"/>
+      <c r="H213" s="20"/>
+      <c r="I213" s="20"/>
+      <c r="J213" s="21"/>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B214" s="15" t="s">
@@ -5912,18 +5921,18 @@
       <c r="D214" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E214" s="16" t="s">
+      <c r="E214" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F214" s="18">
+      <c r="F214" s="19">
         <v>67440</v>
       </c>
-      <c r="G214" s="18">
+      <c r="G214" s="19">
         <v>1686014</v>
       </c>
-      <c r="H214" s="19"/>
-      <c r="I214" s="19"/>
-      <c r="J214" s="20"/>
+      <c r="H214" s="20"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B215" s="15" t="s">
@@ -5935,18 +5944,18 @@
       <c r="D215" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E215" s="16" t="s">
+      <c r="E215" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F215" s="18">
+      <c r="F215" s="19">
         <v>67440</v>
       </c>
-      <c r="G215" s="18">
+      <c r="G215" s="19">
         <v>1686014</v>
       </c>
-      <c r="H215" s="19"/>
-      <c r="I215" s="19"/>
-      <c r="J215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="20"/>
+      <c r="J215" s="21"/>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B216" s="15" t="s">
@@ -5958,18 +5967,18 @@
       <c r="D216" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E216" s="16" t="s">
+      <c r="E216" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F216" s="18">
+      <c r="F216" s="19">
         <v>40000</v>
       </c>
-      <c r="G216" s="18">
+      <c r="G216" s="19">
         <v>1000000</v>
       </c>
-      <c r="H216" s="19"/>
-      <c r="I216" s="19"/>
-      <c r="J216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="21"/>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B217" s="15" t="s">
@@ -5981,18 +5990,18 @@
       <c r="D217" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E217" s="16" t="s">
+      <c r="E217" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F217" s="18">
+      <c r="F217" s="19">
         <v>67440</v>
       </c>
-      <c r="G217" s="18">
+      <c r="G217" s="19">
         <v>1686014</v>
       </c>
-      <c r="H217" s="19"/>
-      <c r="I217" s="19"/>
-      <c r="J217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
+      <c r="J217" s="21"/>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B218" s="15" t="s">
@@ -6004,18 +6013,18 @@
       <c r="D218" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E218" s="16" t="s">
+      <c r="E218" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F218" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G218" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H218" s="19"/>
-      <c r="I218" s="19"/>
-      <c r="J218" s="20"/>
+      <c r="F218" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G218" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="21"/>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B219" s="15" t="s">
@@ -6027,18 +6036,18 @@
       <c r="D219" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E219" s="16" t="s">
+      <c r="E219" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F219" s="18">
+      <c r="F219" s="19">
         <v>46400</v>
       </c>
-      <c r="G219" s="18">
+      <c r="G219" s="19">
         <v>1160000</v>
       </c>
-      <c r="H219" s="19"/>
-      <c r="I219" s="19"/>
-      <c r="J219" s="20"/>
+      <c r="H219" s="20"/>
+      <c r="I219" s="20"/>
+      <c r="J219" s="21"/>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B220" s="15" t="s">
@@ -6050,18 +6059,18 @@
       <c r="D220" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E220" s="16" t="s">
+      <c r="E220" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F220" s="18">
+      <c r="F220" s="19">
         <v>67440</v>
       </c>
-      <c r="G220" s="18">
+      <c r="G220" s="19">
         <v>1686014</v>
       </c>
-      <c r="H220" s="19"/>
-      <c r="I220" s="19"/>
-      <c r="J220" s="20"/>
+      <c r="H220" s="20"/>
+      <c r="I220" s="20"/>
+      <c r="J220" s="21"/>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B221" s="15" t="s">
@@ -6073,18 +6082,18 @@
       <c r="D221" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E221" s="16" t="s">
+      <c r="E221" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F221" s="18">
+      <c r="F221" s="19">
         <v>92452</v>
       </c>
-      <c r="G221" s="18">
+      <c r="G221" s="19">
         <v>2311289</v>
       </c>
-      <c r="H221" s="19"/>
-      <c r="I221" s="19"/>
-      <c r="J221" s="20"/>
+      <c r="H221" s="20"/>
+      <c r="I221" s="20"/>
+      <c r="J221" s="21"/>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B222" s="15" t="s">
@@ -6096,18 +6105,18 @@
       <c r="D222" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E222" s="16" t="s">
+      <c r="E222" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F222" s="18">
+      <c r="F222" s="19">
         <v>25000</v>
       </c>
-      <c r="G222" s="18">
+      <c r="G222" s="19">
         <v>668000</v>
       </c>
-      <c r="H222" s="19"/>
-      <c r="I222" s="19"/>
-      <c r="J222" s="20"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="20"/>
+      <c r="J222" s="21"/>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B223" s="15" t="s">
@@ -6119,18 +6128,18 @@
       <c r="D223" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E223" s="16" t="s">
+      <c r="E223" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F223" s="18">
+      <c r="F223" s="19">
         <v>67440</v>
       </c>
-      <c r="G223" s="18">
+      <c r="G223" s="19">
         <v>1686014</v>
       </c>
-      <c r="H223" s="19"/>
-      <c r="I223" s="19"/>
-      <c r="J223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="21"/>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B224" s="15" t="s">
@@ -6142,18 +6151,18 @@
       <c r="D224" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E224" s="16" t="s">
+      <c r="E224" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F224" s="18">
+      <c r="F224" s="19">
         <v>67440</v>
       </c>
-      <c r="G224" s="18">
+      <c r="G224" s="19">
         <v>1686014</v>
       </c>
-      <c r="H224" s="19"/>
-      <c r="I224" s="19"/>
-      <c r="J224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="21"/>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B225" s="15" t="s">
@@ -6165,18 +6174,18 @@
       <c r="D225" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E225" s="16" t="s">
+      <c r="E225" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F225" s="18">
+      <c r="F225" s="19">
         <v>40000</v>
       </c>
-      <c r="G225" s="18">
+      <c r="G225" s="19">
         <v>1000000</v>
       </c>
-      <c r="H225" s="19"/>
-      <c r="I225" s="19"/>
-      <c r="J225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="21"/>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B226" s="15" t="s">
@@ -6188,18 +6197,18 @@
       <c r="D226" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E226" s="16" t="s">
+      <c r="E226" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F226" s="18">
+      <c r="F226" s="19">
         <v>67440</v>
       </c>
-      <c r="G226" s="18">
+      <c r="G226" s="19">
         <v>1686014</v>
       </c>
-      <c r="H226" s="19"/>
-      <c r="I226" s="19"/>
-      <c r="J226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="21"/>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B227" s="15" t="s">
@@ -6211,18 +6220,18 @@
       <c r="D227" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E227" s="16" t="s">
+      <c r="E227" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F227" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G227" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H227" s="19"/>
-      <c r="I227" s="19"/>
-      <c r="J227" s="20"/>
+      <c r="F227" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G227" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="21"/>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B228" s="15" t="s">
@@ -6234,18 +6243,18 @@
       <c r="D228" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E228" s="16" t="s">
+      <c r="E228" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F228" s="18">
+      <c r="F228" s="19">
         <v>46400</v>
       </c>
-      <c r="G228" s="18">
+      <c r="G228" s="19">
         <v>1160000</v>
       </c>
-      <c r="H228" s="19"/>
-      <c r="I228" s="19"/>
-      <c r="J228" s="20"/>
+      <c r="H228" s="20"/>
+      <c r="I228" s="20"/>
+      <c r="J228" s="21"/>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B229" s="15" t="s">
@@ -6257,18 +6266,18 @@
       <c r="D229" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E229" s="16" t="s">
+      <c r="E229" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F229" s="18">
+      <c r="F229" s="19">
         <v>67440</v>
       </c>
-      <c r="G229" s="18">
+      <c r="G229" s="19">
         <v>1686014</v>
       </c>
-      <c r="H229" s="19"/>
-      <c r="I229" s="19"/>
-      <c r="J229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="21"/>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B230" s="15" t="s">
@@ -6280,18 +6289,18 @@
       <c r="D230" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E230" s="16" t="s">
+      <c r="E230" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F230" s="18">
+      <c r="F230" s="19">
         <v>92452</v>
       </c>
-      <c r="G230" s="18">
+      <c r="G230" s="19">
         <v>2311289</v>
       </c>
-      <c r="H230" s="19"/>
-      <c r="I230" s="19"/>
-      <c r="J230" s="20"/>
+      <c r="H230" s="20"/>
+      <c r="I230" s="20"/>
+      <c r="J230" s="21"/>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B231" s="15" t="s">
@@ -6303,18 +6312,18 @@
       <c r="D231" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E231" s="16" t="s">
+      <c r="E231" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F231" s="18">
+      <c r="F231" s="19">
         <v>25000</v>
       </c>
-      <c r="G231" s="18">
+      <c r="G231" s="19">
         <v>668000</v>
       </c>
-      <c r="H231" s="19"/>
-      <c r="I231" s="19"/>
-      <c r="J231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="21"/>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B232" s="15" t="s">
@@ -6326,18 +6335,18 @@
       <c r="D232" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E232" s="16" t="s">
+      <c r="E232" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F232" s="18">
+      <c r="F232" s="19">
         <v>67440</v>
       </c>
-      <c r="G232" s="18">
+      <c r="G232" s="19">
         <v>1686014</v>
       </c>
-      <c r="H232" s="19"/>
-      <c r="I232" s="19"/>
-      <c r="J232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="21"/>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B233" s="15" t="s">
@@ -6349,18 +6358,18 @@
       <c r="D233" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E233" s="16" t="s">
+      <c r="E233" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F233" s="18">
+      <c r="F233" s="19">
         <v>67440</v>
       </c>
-      <c r="G233" s="18">
+      <c r="G233" s="19">
         <v>1686014</v>
       </c>
-      <c r="H233" s="19"/>
-      <c r="I233" s="19"/>
-      <c r="J233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="21"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B234" s="15" t="s">
@@ -6372,18 +6381,18 @@
       <c r="D234" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E234" s="16" t="s">
+      <c r="E234" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F234" s="18">
+      <c r="F234" s="19">
         <v>40000</v>
       </c>
-      <c r="G234" s="18">
+      <c r="G234" s="19">
         <v>1000000</v>
       </c>
-      <c r="H234" s="19"/>
-      <c r="I234" s="19"/>
-      <c r="J234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="21"/>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B235" s="15" t="s">
@@ -6395,18 +6404,18 @@
       <c r="D235" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E235" s="16" t="s">
+      <c r="E235" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F235" s="18">
+      <c r="F235" s="19">
         <v>67440</v>
       </c>
-      <c r="G235" s="18">
+      <c r="G235" s="19">
         <v>1686014</v>
       </c>
-      <c r="H235" s="19"/>
-      <c r="I235" s="19"/>
-      <c r="J235" s="20"/>
+      <c r="H235" s="20"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B236" s="15" t="s">
@@ -6418,18 +6427,18 @@
       <c r="D236" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E236" s="16" t="s">
+      <c r="E236" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F236" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G236" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H236" s="19"/>
-      <c r="I236" s="19"/>
-      <c r="J236" s="20"/>
+      <c r="F236" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G236" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H236" s="20"/>
+      <c r="I236" s="20"/>
+      <c r="J236" s="21"/>
     </row>
     <row r="237" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B237" s="15" t="s">
@@ -6441,18 +6450,18 @@
       <c r="D237" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E237" s="16" t="s">
+      <c r="E237" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F237" s="18">
+      <c r="F237" s="19">
         <v>46400</v>
       </c>
-      <c r="G237" s="18">
+      <c r="G237" s="19">
         <v>1160000</v>
       </c>
-      <c r="H237" s="19"/>
-      <c r="I237" s="19"/>
-      <c r="J237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="21"/>
     </row>
     <row r="238" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B238" s="15" t="s">
@@ -6464,18 +6473,18 @@
       <c r="D238" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E238" s="16" t="s">
+      <c r="E238" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F238" s="18">
+      <c r="F238" s="19">
         <v>67440</v>
       </c>
-      <c r="G238" s="18">
+      <c r="G238" s="19">
         <v>1686014</v>
       </c>
-      <c r="H238" s="19"/>
-      <c r="I238" s="19"/>
-      <c r="J238" s="20"/>
+      <c r="H238" s="20"/>
+      <c r="I238" s="20"/>
+      <c r="J238" s="21"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B239" s="15" t="s">
@@ -6487,18 +6496,18 @@
       <c r="D239" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E239" s="16" t="s">
+      <c r="E239" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F239" s="18">
+      <c r="F239" s="19">
         <v>92452</v>
       </c>
-      <c r="G239" s="18">
+      <c r="G239" s="19">
         <v>2311289</v>
       </c>
-      <c r="H239" s="19"/>
-      <c r="I239" s="19"/>
-      <c r="J239" s="20"/>
+      <c r="H239" s="20"/>
+      <c r="I239" s="20"/>
+      <c r="J239" s="21"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B240" s="15" t="s">
@@ -6510,18 +6519,18 @@
       <c r="D240" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E240" s="16" t="s">
+      <c r="E240" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F240" s="18">
+      <c r="F240" s="19">
         <v>25000</v>
       </c>
-      <c r="G240" s="18">
+      <c r="G240" s="19">
         <v>668000</v>
       </c>
-      <c r="H240" s="19"/>
-      <c r="I240" s="19"/>
-      <c r="J240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="21"/>
     </row>
     <row r="241" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B241" s="15" t="s">
@@ -6533,18 +6542,18 @@
       <c r="D241" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E241" s="16" t="s">
+      <c r="E241" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F241" s="18">
+      <c r="F241" s="19">
         <v>67440</v>
       </c>
-      <c r="G241" s="18">
+      <c r="G241" s="19">
         <v>1686014</v>
       </c>
-      <c r="H241" s="19"/>
-      <c r="I241" s="19"/>
-      <c r="J241" s="20"/>
+      <c r="H241" s="20"/>
+      <c r="I241" s="20"/>
+      <c r="J241" s="21"/>
     </row>
     <row r="242" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B242" s="15" t="s">
@@ -6556,18 +6565,18 @@
       <c r="D242" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E242" s="16" t="s">
+      <c r="E242" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F242" s="18">
+      <c r="F242" s="19">
         <v>67440</v>
       </c>
-      <c r="G242" s="18">
+      <c r="G242" s="19">
         <v>1686014</v>
       </c>
-      <c r="H242" s="19"/>
-      <c r="I242" s="19"/>
-      <c r="J242" s="20"/>
+      <c r="H242" s="20"/>
+      <c r="I242" s="20"/>
+      <c r="J242" s="21"/>
     </row>
     <row r="243" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B243" s="15" t="s">
@@ -6579,18 +6588,18 @@
       <c r="D243" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E243" s="16" t="s">
+      <c r="E243" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F243" s="18">
+      <c r="F243" s="19">
         <v>40000</v>
       </c>
-      <c r="G243" s="18">
+      <c r="G243" s="19">
         <v>1000000</v>
       </c>
-      <c r="H243" s="19"/>
-      <c r="I243" s="19"/>
-      <c r="J243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="21"/>
     </row>
     <row r="244" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B244" s="15" t="s">
@@ -6602,18 +6611,18 @@
       <c r="D244" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E244" s="16" t="s">
+      <c r="E244" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F244" s="18">
+      <c r="F244" s="19">
         <v>67440</v>
       </c>
-      <c r="G244" s="18">
+      <c r="G244" s="19">
         <v>1686014</v>
       </c>
-      <c r="H244" s="19"/>
-      <c r="I244" s="19"/>
-      <c r="J244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="21"/>
     </row>
     <row r="245" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B245" s="15" t="s">
@@ -6625,18 +6634,18 @@
       <c r="D245" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E245" s="16" t="s">
+      <c r="E245" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F245" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G245" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H245" s="19"/>
-      <c r="I245" s="19"/>
-      <c r="J245" s="20"/>
+      <c r="F245" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G245" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H245" s="20"/>
+      <c r="I245" s="20"/>
+      <c r="J245" s="21"/>
     </row>
     <row r="246" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B246" s="15" t="s">
@@ -6648,18 +6657,18 @@
       <c r="D246" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E246" s="16" t="s">
+      <c r="E246" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F246" s="18">
+      <c r="F246" s="19">
         <v>46400</v>
       </c>
-      <c r="G246" s="18">
+      <c r="G246" s="19">
         <v>1160000</v>
       </c>
-      <c r="H246" s="19"/>
-      <c r="I246" s="19"/>
-      <c r="J246" s="20"/>
+      <c r="H246" s="20"/>
+      <c r="I246" s="20"/>
+      <c r="J246" s="21"/>
     </row>
     <row r="247" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B247" s="15" t="s">
@@ -6671,18 +6680,18 @@
       <c r="D247" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E247" s="16" t="s">
+      <c r="E247" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F247" s="18">
+      <c r="F247" s="19">
         <v>67440</v>
       </c>
-      <c r="G247" s="18">
+      <c r="G247" s="19">
         <v>1686014</v>
       </c>
-      <c r="H247" s="19"/>
-      <c r="I247" s="19"/>
-      <c r="J247" s="20"/>
+      <c r="H247" s="20"/>
+      <c r="I247" s="20"/>
+      <c r="J247" s="21"/>
     </row>
     <row r="248" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B248" s="15" t="s">
@@ -6694,18 +6703,18 @@
       <c r="D248" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E248" s="16" t="s">
+      <c r="E248" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F248" s="18">
+      <c r="F248" s="19">
         <v>92452</v>
       </c>
-      <c r="G248" s="18">
+      <c r="G248" s="19">
         <v>2311289</v>
       </c>
-      <c r="H248" s="19"/>
-      <c r="I248" s="19"/>
-      <c r="J248" s="20"/>
+      <c r="H248" s="20"/>
+      <c r="I248" s="20"/>
+      <c r="J248" s="21"/>
     </row>
     <row r="249" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B249" s="15" t="s">
@@ -6717,18 +6726,18 @@
       <c r="D249" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E249" s="16" t="s">
+      <c r="E249" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F249" s="18">
+      <c r="F249" s="19">
         <v>25000</v>
       </c>
-      <c r="G249" s="18">
+      <c r="G249" s="19">
         <v>668000</v>
       </c>
-      <c r="H249" s="19"/>
-      <c r="I249" s="19"/>
-      <c r="J249" s="20"/>
+      <c r="H249" s="20"/>
+      <c r="I249" s="20"/>
+      <c r="J249" s="21"/>
     </row>
     <row r="250" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B250" s="15" t="s">
@@ -6740,18 +6749,18 @@
       <c r="D250" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E250" s="16" t="s">
+      <c r="E250" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F250" s="18">
+      <c r="F250" s="19">
         <v>67440</v>
       </c>
-      <c r="G250" s="18">
+      <c r="G250" s="19">
         <v>1686014</v>
       </c>
-      <c r="H250" s="19"/>
-      <c r="I250" s="19"/>
-      <c r="J250" s="20"/>
+      <c r="H250" s="20"/>
+      <c r="I250" s="20"/>
+      <c r="J250" s="21"/>
     </row>
     <row r="251" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B251" s="15" t="s">
@@ -6763,18 +6772,18 @@
       <c r="D251" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E251" s="16" t="s">
+      <c r="E251" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F251" s="18">
+      <c r="F251" s="19">
         <v>67440</v>
       </c>
-      <c r="G251" s="18">
+      <c r="G251" s="19">
         <v>1686014</v>
       </c>
-      <c r="H251" s="19"/>
-      <c r="I251" s="19"/>
-      <c r="J251" s="20"/>
+      <c r="H251" s="20"/>
+      <c r="I251" s="20"/>
+      <c r="J251" s="21"/>
     </row>
     <row r="252" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B252" s="15" t="s">
@@ -6786,18 +6795,18 @@
       <c r="D252" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E252" s="16" t="s">
+      <c r="E252" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F252" s="18">
+      <c r="F252" s="19">
         <v>40000</v>
       </c>
-      <c r="G252" s="18">
+      <c r="G252" s="19">
         <v>1000000</v>
       </c>
-      <c r="H252" s="19"/>
-      <c r="I252" s="19"/>
-      <c r="J252" s="20"/>
+      <c r="H252" s="20"/>
+      <c r="I252" s="20"/>
+      <c r="J252" s="21"/>
     </row>
     <row r="253" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B253" s="15" t="s">
@@ -6809,18 +6818,18 @@
       <c r="D253" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E253" s="16" t="s">
+      <c r="E253" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F253" s="18">
+      <c r="F253" s="19">
         <v>67440</v>
       </c>
-      <c r="G253" s="18">
+      <c r="G253" s="19">
         <v>1686014</v>
       </c>
-      <c r="H253" s="19"/>
-      <c r="I253" s="19"/>
-      <c r="J253" s="20"/>
+      <c r="H253" s="20"/>
+      <c r="I253" s="20"/>
+      <c r="J253" s="21"/>
     </row>
     <row r="254" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B254" s="15" t="s">
@@ -6832,18 +6841,18 @@
       <c r="D254" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E254" s="16" t="s">
+      <c r="E254" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F254" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G254" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H254" s="19"/>
-      <c r="I254" s="19"/>
-      <c r="J254" s="20"/>
+      <c r="F254" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G254" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H254" s="20"/>
+      <c r="I254" s="20"/>
+      <c r="J254" s="21"/>
     </row>
     <row r="255" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B255" s="15" t="s">
@@ -6855,18 +6864,18 @@
       <c r="D255" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E255" s="16" t="s">
+      <c r="E255" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F255" s="18">
+      <c r="F255" s="19">
         <v>46400</v>
       </c>
-      <c r="G255" s="18">
+      <c r="G255" s="19">
         <v>1160000</v>
       </c>
-      <c r="H255" s="19"/>
-      <c r="I255" s="19"/>
-      <c r="J255" s="20"/>
+      <c r="H255" s="20"/>
+      <c r="I255" s="20"/>
+      <c r="J255" s="21"/>
     </row>
     <row r="256" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B256" s="15" t="s">
@@ -6878,18 +6887,18 @@
       <c r="D256" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E256" s="16" t="s">
+      <c r="E256" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F256" s="18">
+      <c r="F256" s="19">
         <v>67440</v>
       </c>
-      <c r="G256" s="18">
+      <c r="G256" s="19">
         <v>1686014</v>
       </c>
-      <c r="H256" s="19"/>
-      <c r="I256" s="19"/>
-      <c r="J256" s="20"/>
+      <c r="H256" s="20"/>
+      <c r="I256" s="20"/>
+      <c r="J256" s="21"/>
     </row>
     <row r="257" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B257" s="15" t="s">
@@ -6901,18 +6910,18 @@
       <c r="D257" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E257" s="16" t="s">
+      <c r="E257" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F257" s="18">
+      <c r="F257" s="19">
         <v>92452</v>
       </c>
-      <c r="G257" s="18">
+      <c r="G257" s="19">
         <v>2311289</v>
       </c>
-      <c r="H257" s="19"/>
-      <c r="I257" s="19"/>
-      <c r="J257" s="20"/>
+      <c r="H257" s="20"/>
+      <c r="I257" s="20"/>
+      <c r="J257" s="21"/>
     </row>
     <row r="258" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B258" s="15" t="s">
@@ -6924,18 +6933,18 @@
       <c r="D258" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E258" s="16" t="s">
+      <c r="E258" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F258" s="18">
+      <c r="F258" s="19">
         <v>25000</v>
       </c>
-      <c r="G258" s="18">
+      <c r="G258" s="19">
         <v>668000</v>
       </c>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="20"/>
+      <c r="H258" s="20"/>
+      <c r="I258" s="20"/>
+      <c r="J258" s="21"/>
     </row>
     <row r="259" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B259" s="15" t="s">
@@ -6947,18 +6956,18 @@
       <c r="D259" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E259" s="16" t="s">
+      <c r="E259" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F259" s="18">
+      <c r="F259" s="19">
         <v>67440</v>
       </c>
-      <c r="G259" s="18">
+      <c r="G259" s="19">
         <v>1686014</v>
       </c>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="20"/>
+      <c r="H259" s="20"/>
+      <c r="I259" s="20"/>
+      <c r="J259" s="21"/>
     </row>
     <row r="260" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B260" s="15" t="s">
@@ -6970,18 +6979,18 @@
       <c r="D260" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E260" s="16" t="s">
+      <c r="E260" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F260" s="18">
+      <c r="F260" s="19">
         <v>67440</v>
       </c>
-      <c r="G260" s="18">
+      <c r="G260" s="19">
         <v>1686014</v>
       </c>
-      <c r="H260" s="19"/>
-      <c r="I260" s="19"/>
-      <c r="J260" s="20"/>
+      <c r="H260" s="20"/>
+      <c r="I260" s="20"/>
+      <c r="J260" s="21"/>
     </row>
     <row r="261" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B261" s="15" t="s">
@@ -6993,18 +7002,18 @@
       <c r="D261" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E261" s="16" t="s">
+      <c r="E261" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F261" s="18">
+      <c r="F261" s="19">
         <v>40000</v>
       </c>
-      <c r="G261" s="18">
+      <c r="G261" s="19">
         <v>1000000</v>
       </c>
-      <c r="H261" s="19"/>
-      <c r="I261" s="19"/>
-      <c r="J261" s="20"/>
+      <c r="H261" s="20"/>
+      <c r="I261" s="20"/>
+      <c r="J261" s="21"/>
     </row>
     <row r="262" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B262" s="15" t="s">
@@ -7016,18 +7025,18 @@
       <c r="D262" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E262" s="16" t="s">
+      <c r="E262" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F262" s="18">
+      <c r="F262" s="19">
         <v>67440</v>
       </c>
-      <c r="G262" s="18">
+      <c r="G262" s="19">
         <v>1686014</v>
       </c>
-      <c r="H262" s="19"/>
-      <c r="I262" s="19"/>
-      <c r="J262" s="20"/>
+      <c r="H262" s="20"/>
+      <c r="I262" s="20"/>
+      <c r="J262" s="21"/>
     </row>
     <row r="263" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B263" s="15" t="s">
@@ -7039,18 +7048,18 @@
       <c r="D263" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E263" s="16" t="s">
+      <c r="E263" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F263" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G263" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="20"/>
+      <c r="F263" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G263" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H263" s="20"/>
+      <c r="I263" s="20"/>
+      <c r="J263" s="21"/>
     </row>
     <row r="264" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B264" s="15" t="s">
@@ -7062,18 +7071,18 @@
       <c r="D264" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E264" s="16" t="s">
+      <c r="E264" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F264" s="18">
+      <c r="F264" s="19">
         <v>46400</v>
       </c>
-      <c r="G264" s="18">
+      <c r="G264" s="19">
         <v>1160000</v>
       </c>
-      <c r="H264" s="19"/>
-      <c r="I264" s="19"/>
-      <c r="J264" s="20"/>
+      <c r="H264" s="20"/>
+      <c r="I264" s="20"/>
+      <c r="J264" s="21"/>
     </row>
     <row r="265" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B265" s="15" t="s">
@@ -7085,18 +7094,18 @@
       <c r="D265" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E265" s="16" t="s">
+      <c r="E265" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F265" s="18">
+      <c r="F265" s="19">
         <v>67440</v>
       </c>
-      <c r="G265" s="18">
+      <c r="G265" s="19">
         <v>1686014</v>
       </c>
-      <c r="H265" s="19"/>
-      <c r="I265" s="19"/>
-      <c r="J265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="21"/>
     </row>
     <row r="266" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B266" s="15" t="s">
@@ -7108,18 +7117,18 @@
       <c r="D266" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E266" s="16" t="s">
+      <c r="E266" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F266" s="18">
+      <c r="F266" s="19">
         <v>92452</v>
       </c>
-      <c r="G266" s="18">
+      <c r="G266" s="19">
         <v>2311289</v>
       </c>
-      <c r="H266" s="19"/>
-      <c r="I266" s="19"/>
-      <c r="J266" s="20"/>
+      <c r="H266" s="20"/>
+      <c r="I266" s="20"/>
+      <c r="J266" s="21"/>
     </row>
     <row r="267" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B267" s="15" t="s">
@@ -7131,18 +7140,18 @@
       <c r="D267" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E267" s="16" t="s">
+      <c r="E267" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F267" s="18">
+      <c r="F267" s="19">
         <v>25000</v>
       </c>
-      <c r="G267" s="18">
+      <c r="G267" s="19">
         <v>668000</v>
       </c>
-      <c r="H267" s="19"/>
-      <c r="I267" s="19"/>
-      <c r="J267" s="20"/>
+      <c r="H267" s="20"/>
+      <c r="I267" s="20"/>
+      <c r="J267" s="21"/>
     </row>
     <row r="268" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B268" s="15" t="s">
@@ -7154,18 +7163,18 @@
       <c r="D268" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E268" s="16" t="s">
+      <c r="E268" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F268" s="18">
+      <c r="F268" s="19">
         <v>67440</v>
       </c>
-      <c r="G268" s="18">
+      <c r="G268" s="19">
         <v>1686014</v>
       </c>
-      <c r="H268" s="19"/>
-      <c r="I268" s="19"/>
-      <c r="J268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="21"/>
     </row>
     <row r="269" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B269" s="15" t="s">
@@ -7177,18 +7186,18 @@
       <c r="D269" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E269" s="16" t="s">
+      <c r="E269" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F269" s="18">
+      <c r="F269" s="19">
         <v>67440</v>
       </c>
-      <c r="G269" s="18">
+      <c r="G269" s="19">
         <v>1686014</v>
       </c>
-      <c r="H269" s="19"/>
-      <c r="I269" s="19"/>
-      <c r="J269" s="20"/>
+      <c r="H269" s="20"/>
+      <c r="I269" s="20"/>
+      <c r="J269" s="21"/>
     </row>
     <row r="270" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B270" s="15" t="s">
@@ -7200,18 +7209,18 @@
       <c r="D270" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E270" s="16" t="s">
+      <c r="E270" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F270" s="18">
+      <c r="F270" s="19">
         <v>40000</v>
       </c>
-      <c r="G270" s="18">
+      <c r="G270" s="19">
         <v>1000000</v>
       </c>
-      <c r="H270" s="19"/>
-      <c r="I270" s="19"/>
-      <c r="J270" s="20"/>
+      <c r="H270" s="20"/>
+      <c r="I270" s="20"/>
+      <c r="J270" s="21"/>
     </row>
     <row r="271" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B271" s="15" t="s">
@@ -7223,18 +7232,18 @@
       <c r="D271" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E271" s="16" t="s">
+      <c r="E271" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F271" s="18">
+      <c r="F271" s="19">
         <v>67440</v>
       </c>
-      <c r="G271" s="18">
+      <c r="G271" s="19">
         <v>1686014</v>
       </c>
-      <c r="H271" s="19"/>
-      <c r="I271" s="19"/>
-      <c r="J271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="21"/>
     </row>
     <row r="272" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B272" s="15" t="s">
@@ -7246,18 +7255,18 @@
       <c r="D272" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E272" s="16" t="s">
+      <c r="E272" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F272" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G272" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H272" s="19"/>
-      <c r="I272" s="19"/>
-      <c r="J272" s="20"/>
+      <c r="F272" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G272" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H272" s="20"/>
+      <c r="I272" s="20"/>
+      <c r="J272" s="21"/>
     </row>
     <row r="273" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B273" s="15" t="s">
@@ -7269,18 +7278,18 @@
       <c r="D273" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E273" s="16" t="s">
+      <c r="E273" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F273" s="18">
+      <c r="F273" s="19">
         <v>46400</v>
       </c>
-      <c r="G273" s="18">
+      <c r="G273" s="19">
         <v>1160000</v>
       </c>
-      <c r="H273" s="19"/>
-      <c r="I273" s="19"/>
-      <c r="J273" s="20"/>
+      <c r="H273" s="20"/>
+      <c r="I273" s="20"/>
+      <c r="J273" s="21"/>
     </row>
     <row r="274" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B274" s="15" t="s">
@@ -7292,18 +7301,18 @@
       <c r="D274" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E274" s="16" t="s">
+      <c r="E274" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F274" s="18">
+      <c r="F274" s="19">
         <v>67440</v>
       </c>
-      <c r="G274" s="18">
+      <c r="G274" s="19">
         <v>1686014</v>
       </c>
-      <c r="H274" s="19"/>
-      <c r="I274" s="19"/>
-      <c r="J274" s="20"/>
+      <c r="H274" s="20"/>
+      <c r="I274" s="20"/>
+      <c r="J274" s="21"/>
     </row>
     <row r="275" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B275" s="15" t="s">
@@ -7315,18 +7324,18 @@
       <c r="D275" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E275" s="16" t="s">
+      <c r="E275" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F275" s="18">
+      <c r="F275" s="19">
         <v>92452</v>
       </c>
-      <c r="G275" s="18">
+      <c r="G275" s="19">
         <v>2311289</v>
       </c>
-      <c r="H275" s="19"/>
-      <c r="I275" s="19"/>
-      <c r="J275" s="20"/>
+      <c r="H275" s="20"/>
+      <c r="I275" s="20"/>
+      <c r="J275" s="21"/>
     </row>
     <row r="276" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B276" s="15" t="s">
@@ -7338,18 +7347,18 @@
       <c r="D276" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E276" s="16" t="s">
+      <c r="E276" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F276" s="18">
+      <c r="F276" s="19">
         <v>25000</v>
       </c>
-      <c r="G276" s="18">
+      <c r="G276" s="19">
         <v>668000</v>
       </c>
-      <c r="H276" s="19"/>
-      <c r="I276" s="19"/>
-      <c r="J276" s="20"/>
+      <c r="H276" s="20"/>
+      <c r="I276" s="20"/>
+      <c r="J276" s="21"/>
     </row>
     <row r="277" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B277" s="15" t="s">
@@ -7361,18 +7370,18 @@
       <c r="D277" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E277" s="16" t="s">
+      <c r="E277" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F277" s="18">
+      <c r="F277" s="19">
         <v>67440</v>
       </c>
-      <c r="G277" s="18">
+      <c r="G277" s="19">
         <v>1686014</v>
       </c>
-      <c r="H277" s="19"/>
-      <c r="I277" s="19"/>
-      <c r="J277" s="20"/>
+      <c r="H277" s="20"/>
+      <c r="I277" s="20"/>
+      <c r="J277" s="21"/>
     </row>
     <row r="278" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B278" s="15" t="s">
@@ -7384,18 +7393,18 @@
       <c r="D278" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E278" s="16" t="s">
+      <c r="E278" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F278" s="18">
+      <c r="F278" s="19">
         <v>67440</v>
       </c>
-      <c r="G278" s="18">
+      <c r="G278" s="19">
         <v>1686014</v>
       </c>
-      <c r="H278" s="19"/>
-      <c r="I278" s="19"/>
-      <c r="J278" s="20"/>
+      <c r="H278" s="20"/>
+      <c r="I278" s="20"/>
+      <c r="J278" s="21"/>
     </row>
     <row r="279" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B279" s="15" t="s">
@@ -7407,18 +7416,18 @@
       <c r="D279" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E279" s="16" t="s">
+      <c r="E279" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F279" s="18">
+      <c r="F279" s="19">
         <v>40000</v>
       </c>
-      <c r="G279" s="18">
+      <c r="G279" s="19">
         <v>1000000</v>
       </c>
-      <c r="H279" s="19"/>
-      <c r="I279" s="19"/>
-      <c r="J279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="21"/>
     </row>
     <row r="280" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B280" s="15" t="s">
@@ -7430,18 +7439,18 @@
       <c r="D280" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E280" s="16" t="s">
+      <c r="E280" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F280" s="18">
+      <c r="F280" s="19">
         <v>67440</v>
       </c>
-      <c r="G280" s="18">
+      <c r="G280" s="19">
         <v>1686014</v>
       </c>
-      <c r="H280" s="19"/>
-      <c r="I280" s="19"/>
-      <c r="J280" s="20"/>
+      <c r="H280" s="20"/>
+      <c r="I280" s="20"/>
+      <c r="J280" s="21"/>
     </row>
     <row r="281" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B281" s="15" t="s">
@@ -7453,18 +7462,18 @@
       <c r="D281" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E281" s="16" t="s">
+      <c r="E281" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F281" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G281" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H281" s="19"/>
-      <c r="I281" s="19"/>
-      <c r="J281" s="20"/>
+      <c r="F281" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G281" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H281" s="20"/>
+      <c r="I281" s="20"/>
+      <c r="J281" s="21"/>
     </row>
     <row r="282" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B282" s="15" t="s">
@@ -7476,18 +7485,18 @@
       <c r="D282" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E282" s="16" t="s">
+      <c r="E282" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F282" s="18">
+      <c r="F282" s="19">
         <v>46400</v>
       </c>
-      <c r="G282" s="18">
+      <c r="G282" s="19">
         <v>1160000</v>
       </c>
-      <c r="H282" s="19"/>
-      <c r="I282" s="19"/>
-      <c r="J282" s="20"/>
+      <c r="H282" s="20"/>
+      <c r="I282" s="20"/>
+      <c r="J282" s="21"/>
     </row>
     <row r="283" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B283" s="15" t="s">
@@ -7499,18 +7508,18 @@
       <c r="D283" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E283" s="16" t="s">
+      <c r="E283" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F283" s="18">
+      <c r="F283" s="19">
         <v>67440</v>
       </c>
-      <c r="G283" s="18">
+      <c r="G283" s="19">
         <v>1686014</v>
       </c>
-      <c r="H283" s="19"/>
-      <c r="I283" s="19"/>
-      <c r="J283" s="20"/>
+      <c r="H283" s="20"/>
+      <c r="I283" s="20"/>
+      <c r="J283" s="21"/>
     </row>
     <row r="284" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B284" s="15" t="s">
@@ -7522,18 +7531,18 @@
       <c r="D284" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E284" s="16" t="s">
+      <c r="E284" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F284" s="18">
+      <c r="F284" s="19">
         <v>92452</v>
       </c>
-      <c r="G284" s="18">
+      <c r="G284" s="19">
         <v>2311289</v>
       </c>
-      <c r="H284" s="19"/>
-      <c r="I284" s="19"/>
-      <c r="J284" s="20"/>
+      <c r="H284" s="20"/>
+      <c r="I284" s="20"/>
+      <c r="J284" s="21"/>
     </row>
     <row r="285" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B285" s="15" t="s">
@@ -7545,18 +7554,18 @@
       <c r="D285" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E285" s="16" t="s">
+      <c r="E285" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F285" s="18">
+      <c r="F285" s="19">
         <v>25000</v>
       </c>
-      <c r="G285" s="18">
+      <c r="G285" s="19">
         <v>668000</v>
       </c>
-      <c r="H285" s="19"/>
-      <c r="I285" s="19"/>
-      <c r="J285" s="20"/>
+      <c r="H285" s="20"/>
+      <c r="I285" s="20"/>
+      <c r="J285" s="21"/>
     </row>
     <row r="286" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B286" s="15" t="s">
@@ -7568,18 +7577,18 @@
       <c r="D286" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E286" s="16" t="s">
+      <c r="E286" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F286" s="18">
+      <c r="F286" s="19">
         <v>67440</v>
       </c>
-      <c r="G286" s="18">
+      <c r="G286" s="19">
         <v>1686014</v>
       </c>
-      <c r="H286" s="19"/>
-      <c r="I286" s="19"/>
-      <c r="J286" s="20"/>
+      <c r="H286" s="20"/>
+      <c r="I286" s="20"/>
+      <c r="J286" s="21"/>
     </row>
     <row r="287" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B287" s="15" t="s">
@@ -7591,18 +7600,18 @@
       <c r="D287" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E287" s="16" t="s">
+      <c r="E287" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F287" s="18">
+      <c r="F287" s="19">
         <v>67440</v>
       </c>
-      <c r="G287" s="18">
+      <c r="G287" s="19">
         <v>1686014</v>
       </c>
-      <c r="H287" s="19"/>
-      <c r="I287" s="19"/>
-      <c r="J287" s="20"/>
+      <c r="H287" s="20"/>
+      <c r="I287" s="20"/>
+      <c r="J287" s="21"/>
     </row>
     <row r="288" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B288" s="15" t="s">
@@ -7614,18 +7623,18 @@
       <c r="D288" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E288" s="16" t="s">
+      <c r="E288" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F288" s="18">
+      <c r="F288" s="19">
         <v>40000</v>
       </c>
-      <c r="G288" s="18">
+      <c r="G288" s="19">
         <v>1000000</v>
       </c>
-      <c r="H288" s="19"/>
-      <c r="I288" s="19"/>
-      <c r="J288" s="20"/>
+      <c r="H288" s="20"/>
+      <c r="I288" s="20"/>
+      <c r="J288" s="21"/>
     </row>
     <row r="289" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B289" s="15" t="s">
@@ -7637,18 +7646,18 @@
       <c r="D289" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E289" s="16" t="s">
+      <c r="E289" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F289" s="18">
+      <c r="F289" s="19">
         <v>67440</v>
       </c>
-      <c r="G289" s="18">
+      <c r="G289" s="19">
         <v>1686014</v>
       </c>
-      <c r="H289" s="19"/>
-      <c r="I289" s="19"/>
-      <c r="J289" s="20"/>
+      <c r="H289" s="20"/>
+      <c r="I289" s="20"/>
+      <c r="J289" s="21"/>
     </row>
     <row r="290" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B290" s="15" t="s">
@@ -7660,18 +7669,18 @@
       <c r="D290" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E290" s="16" t="s">
+      <c r="E290" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F290" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G290" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H290" s="19"/>
-      <c r="I290" s="19"/>
-      <c r="J290" s="20"/>
+      <c r="F290" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G290" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H290" s="20"/>
+      <c r="I290" s="20"/>
+      <c r="J290" s="21"/>
     </row>
     <row r="291" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B291" s="15" t="s">
@@ -7683,18 +7692,18 @@
       <c r="D291" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E291" s="16" t="s">
+      <c r="E291" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F291" s="18">
+      <c r="F291" s="19">
         <v>46400</v>
       </c>
-      <c r="G291" s="18">
+      <c r="G291" s="19">
         <v>1160000</v>
       </c>
-      <c r="H291" s="19"/>
-      <c r="I291" s="19"/>
-      <c r="J291" s="20"/>
+      <c r="H291" s="20"/>
+      <c r="I291" s="20"/>
+      <c r="J291" s="21"/>
     </row>
     <row r="292" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B292" s="15" t="s">
@@ -7706,18 +7715,18 @@
       <c r="D292" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E292" s="16" t="s">
+      <c r="E292" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F292" s="18">
+      <c r="F292" s="19">
         <v>67440</v>
       </c>
-      <c r="G292" s="18">
+      <c r="G292" s="19">
         <v>1686014</v>
       </c>
-      <c r="H292" s="19"/>
-      <c r="I292" s="19"/>
-      <c r="J292" s="20"/>
+      <c r="H292" s="20"/>
+      <c r="I292" s="20"/>
+      <c r="J292" s="21"/>
     </row>
     <row r="293" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B293" s="15" t="s">
@@ -7729,18 +7738,18 @@
       <c r="D293" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E293" s="16" t="s">
+      <c r="E293" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F293" s="18">
+      <c r="F293" s="19">
         <v>92452</v>
       </c>
-      <c r="G293" s="18">
+      <c r="G293" s="19">
         <v>2311289</v>
       </c>
-      <c r="H293" s="19"/>
-      <c r="I293" s="19"/>
-      <c r="J293" s="20"/>
+      <c r="H293" s="20"/>
+      <c r="I293" s="20"/>
+      <c r="J293" s="21"/>
     </row>
     <row r="294" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B294" s="15" t="s">
@@ -7752,18 +7761,18 @@
       <c r="D294" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E294" s="16" t="s">
+      <c r="E294" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F294" s="18">
+      <c r="F294" s="19">
         <v>25000</v>
       </c>
-      <c r="G294" s="18">
+      <c r="G294" s="19">
         <v>668000</v>
       </c>
-      <c r="H294" s="19"/>
-      <c r="I294" s="19"/>
-      <c r="J294" s="20"/>
+      <c r="H294" s="20"/>
+      <c r="I294" s="20"/>
+      <c r="J294" s="21"/>
     </row>
     <row r="295" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B295" s="15" t="s">
@@ -7775,18 +7784,18 @@
       <c r="D295" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E295" s="16" t="s">
+      <c r="E295" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F295" s="18">
+      <c r="F295" s="19">
         <v>67440</v>
       </c>
-      <c r="G295" s="18">
+      <c r="G295" s="19">
         <v>1686014</v>
       </c>
-      <c r="H295" s="19"/>
-      <c r="I295" s="19"/>
-      <c r="J295" s="20"/>
+      <c r="H295" s="20"/>
+      <c r="I295" s="20"/>
+      <c r="J295" s="21"/>
     </row>
     <row r="296" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B296" s="15" t="s">
@@ -7798,18 +7807,18 @@
       <c r="D296" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E296" s="16" t="s">
+      <c r="E296" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F296" s="18">
+      <c r="F296" s="19">
         <v>67440</v>
       </c>
-      <c r="G296" s="18">
+      <c r="G296" s="19">
         <v>1686014</v>
       </c>
-      <c r="H296" s="19"/>
-      <c r="I296" s="19"/>
-      <c r="J296" s="20"/>
+      <c r="H296" s="20"/>
+      <c r="I296" s="20"/>
+      <c r="J296" s="21"/>
     </row>
     <row r="297" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B297" s="15" t="s">
@@ -7821,18 +7830,18 @@
       <c r="D297" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E297" s="16" t="s">
+      <c r="E297" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F297" s="18">
+      <c r="F297" s="19">
         <v>40000</v>
       </c>
-      <c r="G297" s="18">
+      <c r="G297" s="19">
         <v>1000000</v>
       </c>
-      <c r="H297" s="19"/>
-      <c r="I297" s="19"/>
-      <c r="J297" s="20"/>
+      <c r="H297" s="20"/>
+      <c r="I297" s="20"/>
+      <c r="J297" s="21"/>
     </row>
     <row r="298" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B298" s="15" t="s">
@@ -7844,18 +7853,18 @@
       <c r="D298" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E298" s="16" t="s">
+      <c r="E298" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F298" s="18">
+      <c r="F298" s="19">
         <v>67440</v>
       </c>
-      <c r="G298" s="18">
+      <c r="G298" s="19">
         <v>1686014</v>
       </c>
-      <c r="H298" s="19"/>
-      <c r="I298" s="19"/>
-      <c r="J298" s="20"/>
+      <c r="H298" s="20"/>
+      <c r="I298" s="20"/>
+      <c r="J298" s="21"/>
     </row>
     <row r="299" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B299" s="15" t="s">
@@ -7867,18 +7876,18 @@
       <c r="D299" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E299" s="16" t="s">
+      <c r="E299" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F299" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G299" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H299" s="19"/>
-      <c r="I299" s="19"/>
-      <c r="J299" s="20"/>
+      <c r="F299" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G299" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H299" s="20"/>
+      <c r="I299" s="20"/>
+      <c r="J299" s="21"/>
     </row>
     <row r="300" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B300" s="15" t="s">
@@ -7890,18 +7899,18 @@
       <c r="D300" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E300" s="16" t="s">
+      <c r="E300" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F300" s="18">
+      <c r="F300" s="19">
         <v>46400</v>
       </c>
-      <c r="G300" s="18">
+      <c r="G300" s="19">
         <v>1160000</v>
       </c>
-      <c r="H300" s="19"/>
-      <c r="I300" s="19"/>
-      <c r="J300" s="20"/>
+      <c r="H300" s="20"/>
+      <c r="I300" s="20"/>
+      <c r="J300" s="21"/>
     </row>
     <row r="301" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B301" s="15" t="s">
@@ -7913,18 +7922,18 @@
       <c r="D301" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="E301" s="16" t="s">
+      <c r="E301" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F301" s="18">
+      <c r="F301" s="19">
         <v>67440</v>
       </c>
-      <c r="G301" s="18">
+      <c r="G301" s="19">
         <v>1686014</v>
       </c>
-      <c r="H301" s="19"/>
-      <c r="I301" s="19"/>
-      <c r="J301" s="20"/>
+      <c r="H301" s="20"/>
+      <c r="I301" s="20"/>
+      <c r="J301" s="21"/>
     </row>
     <row r="302" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B302" s="15" t="s">
@@ -7936,18 +7945,18 @@
       <c r="D302" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E302" s="16" t="s">
+      <c r="E302" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F302" s="18">
+      <c r="F302" s="19">
         <v>92452</v>
       </c>
-      <c r="G302" s="18">
+      <c r="G302" s="19">
         <v>2311289</v>
       </c>
-      <c r="H302" s="19"/>
-      <c r="I302" s="19"/>
-      <c r="J302" s="20"/>
+      <c r="H302" s="20"/>
+      <c r="I302" s="20"/>
+      <c r="J302" s="21"/>
     </row>
     <row r="303" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B303" s="15" t="s">
@@ -7959,18 +7968,18 @@
       <c r="D303" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E303" s="16" t="s">
+      <c r="E303" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F303" s="18">
+      <c r="F303" s="19">
         <v>25000</v>
       </c>
-      <c r="G303" s="18">
+      <c r="G303" s="19">
         <v>668000</v>
       </c>
-      <c r="H303" s="19"/>
-      <c r="I303" s="19"/>
-      <c r="J303" s="20"/>
+      <c r="H303" s="20"/>
+      <c r="I303" s="20"/>
+      <c r="J303" s="21"/>
     </row>
     <row r="304" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B304" s="15" t="s">
@@ -7982,18 +7991,18 @@
       <c r="D304" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E304" s="16" t="s">
+      <c r="E304" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F304" s="18">
+      <c r="F304" s="19">
         <v>67440</v>
       </c>
-      <c r="G304" s="18">
+      <c r="G304" s="19">
         <v>1686014</v>
       </c>
-      <c r="H304" s="19"/>
-      <c r="I304" s="19"/>
-      <c r="J304" s="20"/>
+      <c r="H304" s="20"/>
+      <c r="I304" s="20"/>
+      <c r="J304" s="21"/>
     </row>
     <row r="305" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B305" s="15" t="s">
@@ -8005,18 +8014,18 @@
       <c r="D305" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E305" s="16" t="s">
+      <c r="E305" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F305" s="18">
+      <c r="F305" s="19">
         <v>40000</v>
       </c>
-      <c r="G305" s="18">
+      <c r="G305" s="19">
         <v>1000000</v>
       </c>
-      <c r="H305" s="19"/>
-      <c r="I305" s="19"/>
-      <c r="J305" s="20"/>
+      <c r="H305" s="20"/>
+      <c r="I305" s="20"/>
+      <c r="J305" s="21"/>
     </row>
     <row r="306" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B306" s="15" t="s">
@@ -8028,18 +8037,18 @@
       <c r="D306" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E306" s="16" t="s">
+      <c r="E306" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F306" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G306" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H306" s="19"/>
-      <c r="I306" s="19"/>
-      <c r="J306" s="20"/>
+      <c r="F306" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G306" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H306" s="20"/>
+      <c r="I306" s="20"/>
+      <c r="J306" s="21"/>
     </row>
     <row r="307" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B307" s="15" t="s">
@@ -8051,18 +8060,18 @@
       <c r="D307" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E307" s="16" t="s">
+      <c r="E307" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F307" s="18">
+      <c r="F307" s="19">
         <v>92452</v>
       </c>
-      <c r="G307" s="18">
+      <c r="G307" s="19">
         <v>2311289</v>
       </c>
-      <c r="H307" s="19"/>
-      <c r="I307" s="19"/>
-      <c r="J307" s="20"/>
+      <c r="H307" s="20"/>
+      <c r="I307" s="20"/>
+      <c r="J307" s="21"/>
     </row>
     <row r="308" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B308" s="15" t="s">
@@ -8074,18 +8083,18 @@
       <c r="D308" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E308" s="16" t="s">
+      <c r="E308" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F308" s="18">
+      <c r="F308" s="19">
         <v>25000</v>
       </c>
-      <c r="G308" s="18">
+      <c r="G308" s="19">
         <v>668000</v>
       </c>
-      <c r="H308" s="19"/>
-      <c r="I308" s="19"/>
-      <c r="J308" s="20"/>
+      <c r="H308" s="20"/>
+      <c r="I308" s="20"/>
+      <c r="J308" s="21"/>
     </row>
     <row r="309" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B309" s="15" t="s">
@@ -8097,18 +8106,18 @@
       <c r="D309" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E309" s="16" t="s">
+      <c r="E309" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F309" s="18">
+      <c r="F309" s="19">
         <v>67440</v>
       </c>
-      <c r="G309" s="18">
+      <c r="G309" s="19">
         <v>1686014</v>
       </c>
-      <c r="H309" s="19"/>
-      <c r="I309" s="19"/>
-      <c r="J309" s="20"/>
+      <c r="H309" s="20"/>
+      <c r="I309" s="20"/>
+      <c r="J309" s="21"/>
     </row>
     <row r="310" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B310" s="15" t="s">
@@ -8120,18 +8129,18 @@
       <c r="D310" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E310" s="16" t="s">
+      <c r="E310" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F310" s="18">
+      <c r="F310" s="19">
         <v>40000</v>
       </c>
-      <c r="G310" s="18">
+      <c r="G310" s="19">
         <v>1000000</v>
       </c>
-      <c r="H310" s="19"/>
-      <c r="I310" s="19"/>
-      <c r="J310" s="20"/>
+      <c r="H310" s="20"/>
+      <c r="I310" s="20"/>
+      <c r="J310" s="21"/>
     </row>
     <row r="311" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B311" s="15" t="s">
@@ -8143,18 +8152,18 @@
       <c r="D311" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E311" s="16" t="s">
+      <c r="E311" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F311" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G311" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H311" s="19"/>
-      <c r="I311" s="19"/>
-      <c r="J311" s="20"/>
+      <c r="F311" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G311" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H311" s="20"/>
+      <c r="I311" s="20"/>
+      <c r="J311" s="21"/>
     </row>
     <row r="312" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B312" s="15" t="s">
@@ -8166,18 +8175,18 @@
       <c r="D312" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E312" s="16" t="s">
+      <c r="E312" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F312" s="18">
+      <c r="F312" s="19">
         <v>92452</v>
       </c>
-      <c r="G312" s="18">
+      <c r="G312" s="19">
         <v>2311289</v>
       </c>
-      <c r="H312" s="19"/>
-      <c r="I312" s="19"/>
-      <c r="J312" s="20"/>
+      <c r="H312" s="20"/>
+      <c r="I312" s="20"/>
+      <c r="J312" s="21"/>
     </row>
     <row r="313" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B313" s="15" t="s">
@@ -8189,18 +8198,18 @@
       <c r="D313" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E313" s="16" t="s">
+      <c r="E313" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F313" s="18">
+      <c r="F313" s="19">
         <v>25000</v>
       </c>
-      <c r="G313" s="18">
+      <c r="G313" s="19">
         <v>668000</v>
       </c>
-      <c r="H313" s="19"/>
-      <c r="I313" s="19"/>
-      <c r="J313" s="20"/>
+      <c r="H313" s="20"/>
+      <c r="I313" s="20"/>
+      <c r="J313" s="21"/>
     </row>
     <row r="314" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B314" s="15" t="s">
@@ -8212,18 +8221,18 @@
       <c r="D314" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E314" s="16" t="s">
+      <c r="E314" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F314" s="18">
+      <c r="F314" s="19">
         <v>67440</v>
       </c>
-      <c r="G314" s="18">
+      <c r="G314" s="19">
         <v>1686014</v>
       </c>
-      <c r="H314" s="19"/>
-      <c r="I314" s="19"/>
-      <c r="J314" s="20"/>
+      <c r="H314" s="20"/>
+      <c r="I314" s="20"/>
+      <c r="J314" s="21"/>
     </row>
     <row r="315" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B315" s="15" t="s">
@@ -8235,18 +8244,18 @@
       <c r="D315" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E315" s="16" t="s">
+      <c r="E315" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F315" s="18">
+      <c r="F315" s="19">
         <v>40000</v>
       </c>
-      <c r="G315" s="18">
+      <c r="G315" s="19">
         <v>1000000</v>
       </c>
-      <c r="H315" s="19"/>
-      <c r="I315" s="19"/>
-      <c r="J315" s="20"/>
+      <c r="H315" s="20"/>
+      <c r="I315" s="20"/>
+      <c r="J315" s="21"/>
     </row>
     <row r="316" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B316" s="15" t="s">
@@ -8258,18 +8267,18 @@
       <c r="D316" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E316" s="16" t="s">
+      <c r="E316" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F316" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G316" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H316" s="19"/>
-      <c r="I316" s="19"/>
-      <c r="J316" s="20"/>
+      <c r="F316" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G316" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H316" s="20"/>
+      <c r="I316" s="20"/>
+      <c r="J316" s="21"/>
     </row>
     <row r="317" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B317" s="15" t="s">
@@ -8281,18 +8290,18 @@
       <c r="D317" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E317" s="16" t="s">
+      <c r="E317" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F317" s="18">
+      <c r="F317" s="19">
         <v>92452</v>
       </c>
-      <c r="G317" s="18">
+      <c r="G317" s="19">
         <v>2311289</v>
       </c>
-      <c r="H317" s="19"/>
-      <c r="I317" s="19"/>
-      <c r="J317" s="20"/>
+      <c r="H317" s="20"/>
+      <c r="I317" s="20"/>
+      <c r="J317" s="21"/>
     </row>
     <row r="318" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B318" s="15" t="s">
@@ -8304,18 +8313,18 @@
       <c r="D318" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E318" s="16" t="s">
+      <c r="E318" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F318" s="18">
+      <c r="F318" s="19">
         <v>25000</v>
       </c>
-      <c r="G318" s="18">
+      <c r="G318" s="19">
         <v>668000</v>
       </c>
-      <c r="H318" s="19"/>
-      <c r="I318" s="19"/>
-      <c r="J318" s="20"/>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
+      <c r="J318" s="21"/>
     </row>
     <row r="319" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B319" s="15" t="s">
@@ -8327,18 +8336,18 @@
       <c r="D319" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E319" s="16" t="s">
+      <c r="E319" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F319" s="18">
+      <c r="F319" s="19">
         <v>67440</v>
       </c>
-      <c r="G319" s="18">
+      <c r="G319" s="19">
         <v>1686014</v>
       </c>
-      <c r="H319" s="19"/>
-      <c r="I319" s="19"/>
-      <c r="J319" s="20"/>
+      <c r="H319" s="20"/>
+      <c r="I319" s="20"/>
+      <c r="J319" s="21"/>
     </row>
     <row r="320" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B320" s="15" t="s">
@@ -8350,18 +8359,18 @@
       <c r="D320" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E320" s="16" t="s">
+      <c r="E320" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F320" s="18">
+      <c r="F320" s="19">
         <v>40000</v>
       </c>
-      <c r="G320" s="18">
+      <c r="G320" s="19">
         <v>1000000</v>
       </c>
-      <c r="H320" s="19"/>
-      <c r="I320" s="19"/>
-      <c r="J320" s="20"/>
+      <c r="H320" s="20"/>
+      <c r="I320" s="20"/>
+      <c r="J320" s="21"/>
     </row>
     <row r="321" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B321" s="15" t="s">
@@ -8373,18 +8382,18 @@
       <c r="D321" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E321" s="16" t="s">
+      <c r="E321" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F321" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G321" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H321" s="19"/>
-      <c r="I321" s="19"/>
-      <c r="J321" s="20"/>
+      <c r="F321" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G321" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H321" s="20"/>
+      <c r="I321" s="20"/>
+      <c r="J321" s="21"/>
     </row>
     <row r="322" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B322" s="15" t="s">
@@ -8396,18 +8405,18 @@
       <c r="D322" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E322" s="16" t="s">
+      <c r="E322" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F322" s="18">
+      <c r="F322" s="19">
         <v>92452</v>
       </c>
-      <c r="G322" s="18">
+      <c r="G322" s="19">
         <v>2311289</v>
       </c>
-      <c r="H322" s="19"/>
-      <c r="I322" s="19"/>
-      <c r="J322" s="20"/>
+      <c r="H322" s="20"/>
+      <c r="I322" s="20"/>
+      <c r="J322" s="21"/>
     </row>
     <row r="323" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B323" s="15" t="s">
@@ -8419,18 +8428,18 @@
       <c r="D323" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E323" s="16" t="s">
+      <c r="E323" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F323" s="18">
+      <c r="F323" s="19">
         <v>25000</v>
       </c>
-      <c r="G323" s="18">
+      <c r="G323" s="19">
         <v>668000</v>
       </c>
-      <c r="H323" s="19"/>
-      <c r="I323" s="19"/>
-      <c r="J323" s="20"/>
+      <c r="H323" s="20"/>
+      <c r="I323" s="20"/>
+      <c r="J323" s="21"/>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B324" s="15" t="s">
@@ -8442,18 +8451,18 @@
       <c r="D324" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E324" s="16" t="s">
+      <c r="E324" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F324" s="18">
+      <c r="F324" s="19">
         <v>67440</v>
       </c>
-      <c r="G324" s="18">
+      <c r="G324" s="19">
         <v>1686014</v>
       </c>
-      <c r="H324" s="19"/>
-      <c r="I324" s="19"/>
-      <c r="J324" s="20"/>
+      <c r="H324" s="20"/>
+      <c r="I324" s="20"/>
+      <c r="J324" s="21"/>
     </row>
     <row r="325" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B325" s="15" t="s">
@@ -8465,18 +8474,18 @@
       <c r="D325" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E325" s="16" t="s">
+      <c r="E325" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F325" s="18">
+      <c r="F325" s="19">
         <v>40000</v>
       </c>
-      <c r="G325" s="18">
+      <c r="G325" s="19">
         <v>1000000</v>
       </c>
-      <c r="H325" s="19"/>
-      <c r="I325" s="19"/>
-      <c r="J325" s="20"/>
+      <c r="H325" s="20"/>
+      <c r="I325" s="20"/>
+      <c r="J325" s="21"/>
     </row>
     <row r="326" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B326" s="15" t="s">
@@ -8488,18 +8497,18 @@
       <c r="D326" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E326" s="16" t="s">
+      <c r="E326" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F326" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G326" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H326" s="19"/>
-      <c r="I326" s="19"/>
-      <c r="J326" s="20"/>
+      <c r="F326" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G326" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H326" s="20"/>
+      <c r="I326" s="20"/>
+      <c r="J326" s="21"/>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B327" s="15" t="s">
@@ -8511,18 +8520,18 @@
       <c r="D327" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E327" s="16" t="s">
+      <c r="E327" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F327" s="18">
+      <c r="F327" s="19">
         <v>92452</v>
       </c>
-      <c r="G327" s="18">
+      <c r="G327" s="19">
         <v>2311289</v>
       </c>
-      <c r="H327" s="19"/>
-      <c r="I327" s="19"/>
-      <c r="J327" s="20"/>
+      <c r="H327" s="20"/>
+      <c r="I327" s="20"/>
+      <c r="J327" s="21"/>
     </row>
     <row r="328" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B328" s="15" t="s">
@@ -8534,18 +8543,18 @@
       <c r="D328" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E328" s="16" t="s">
+      <c r="E328" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F328" s="18">
+      <c r="F328" s="19">
         <v>25000</v>
       </c>
-      <c r="G328" s="18">
+      <c r="G328" s="19">
         <v>668000</v>
       </c>
-      <c r="H328" s="19"/>
-      <c r="I328" s="19"/>
-      <c r="J328" s="20"/>
+      <c r="H328" s="20"/>
+      <c r="I328" s="20"/>
+      <c r="J328" s="21"/>
     </row>
     <row r="329" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B329" s="15" t="s">
@@ -8557,18 +8566,18 @@
       <c r="D329" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E329" s="16" t="s">
+      <c r="E329" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F329" s="18">
+      <c r="F329" s="19">
         <v>67440</v>
       </c>
-      <c r="G329" s="18">
+      <c r="G329" s="19">
         <v>1686014</v>
       </c>
-      <c r="H329" s="19"/>
-      <c r="I329" s="19"/>
-      <c r="J329" s="20"/>
+      <c r="H329" s="20"/>
+      <c r="I329" s="20"/>
+      <c r="J329" s="21"/>
     </row>
     <row r="330" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B330" s="15" t="s">
@@ -8580,18 +8589,18 @@
       <c r="D330" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E330" s="16" t="s">
+      <c r="E330" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F330" s="18">
+      <c r="F330" s="19">
         <v>40000</v>
       </c>
-      <c r="G330" s="18">
+      <c r="G330" s="19">
         <v>1000000</v>
       </c>
-      <c r="H330" s="19"/>
-      <c r="I330" s="19"/>
-      <c r="J330" s="20"/>
+      <c r="H330" s="20"/>
+      <c r="I330" s="20"/>
+      <c r="J330" s="21"/>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B331" s="15" t="s">
@@ -8603,18 +8612,18 @@
       <c r="D331" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E331" s="16" t="s">
+      <c r="E331" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F331" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G331" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H331" s="19"/>
-      <c r="I331" s="19"/>
-      <c r="J331" s="20"/>
+      <c r="F331" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G331" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H331" s="20"/>
+      <c r="I331" s="20"/>
+      <c r="J331" s="21"/>
     </row>
     <row r="332" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B332" s="15" t="s">
@@ -8626,18 +8635,18 @@
       <c r="D332" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E332" s="16" t="s">
+      <c r="E332" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F332" s="18">
+      <c r="F332" s="19">
         <v>92452</v>
       </c>
-      <c r="G332" s="18">
+      <c r="G332" s="19">
         <v>2311289</v>
       </c>
-      <c r="H332" s="19"/>
-      <c r="I332" s="19"/>
-      <c r="J332" s="20"/>
+      <c r="H332" s="20"/>
+      <c r="I332" s="20"/>
+      <c r="J332" s="21"/>
     </row>
     <row r="333" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B333" s="15" t="s">
@@ -8649,18 +8658,18 @@
       <c r="D333" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E333" s="16" t="s">
+      <c r="E333" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F333" s="18">
+      <c r="F333" s="19">
         <v>25000</v>
       </c>
-      <c r="G333" s="18">
+      <c r="G333" s="19">
         <v>668000</v>
       </c>
-      <c r="H333" s="19"/>
-      <c r="I333" s="19"/>
-      <c r="J333" s="20"/>
+      <c r="H333" s="20"/>
+      <c r="I333" s="20"/>
+      <c r="J333" s="21"/>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B334" s="15" t="s">
@@ -8672,18 +8681,18 @@
       <c r="D334" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E334" s="16" t="s">
+      <c r="E334" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F334" s="18">
+      <c r="F334" s="19">
         <v>109285</v>
       </c>
-      <c r="G334" s="18">
+      <c r="G334" s="19">
         <v>2732118</v>
       </c>
-      <c r="H334" s="19"/>
-      <c r="I334" s="19"/>
-      <c r="J334" s="20"/>
+      <c r="H334" s="20"/>
+      <c r="I334" s="20"/>
+      <c r="J334" s="21"/>
     </row>
     <row r="335" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B335" s="15" t="s">
@@ -8695,18 +8704,18 @@
       <c r="D335" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E335" s="16" t="s">
+      <c r="E335" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F335" s="18">
+      <c r="F335" s="19">
         <v>67440</v>
       </c>
-      <c r="G335" s="18">
+      <c r="G335" s="19">
         <v>1686014</v>
       </c>
-      <c r="H335" s="19"/>
-      <c r="I335" s="19"/>
-      <c r="J335" s="20"/>
+      <c r="H335" s="20"/>
+      <c r="I335" s="20"/>
+      <c r="J335" s="21"/>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B336" s="15" t="s">
@@ -8718,18 +8727,18 @@
       <c r="D336" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E336" s="16" t="s">
+      <c r="E336" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F336" s="18">
+      <c r="F336" s="19">
         <v>40000</v>
       </c>
-      <c r="G336" s="18">
+      <c r="G336" s="19">
         <v>1000000</v>
       </c>
-      <c r="H336" s="19"/>
-      <c r="I336" s="19"/>
-      <c r="J336" s="20"/>
+      <c r="H336" s="20"/>
+      <c r="I336" s="20"/>
+      <c r="J336" s="21"/>
     </row>
     <row r="337" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B337" s="15" t="s">
@@ -8741,70 +8750,208 @@
       <c r="D337" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E337" s="16" t="s">
+      <c r="E337" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F337" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G337" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H337" s="19"/>
-      <c r="I337" s="19"/>
-      <c r="J337" s="20"/>
+      <c r="F337" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G337" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H337" s="20"/>
+      <c r="I337" s="20"/>
+      <c r="J337" s="21"/>
     </row>
     <row r="338" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B338" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C338" s="22" t="s">
+      <c r="B338" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D338" s="23" t="s">
+      <c r="D338" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E338" s="22" t="s">
+      <c r="E338" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F338" s="24">
+      <c r="F338" s="19">
         <v>92452</v>
       </c>
-      <c r="G338" s="24">
+      <c r="G338" s="19">
         <v>2311289</v>
       </c>
-      <c r="H338" s="25"/>
-      <c r="I338" s="25"/>
-      <c r="J338" s="26"/>
+      <c r="H338" s="20"/>
+      <c r="I338" s="20"/>
+      <c r="J338" s="21"/>
+    </row>
+    <row r="339" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B339" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D339" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E339" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F339" s="19">
+        <v>25000</v>
+      </c>
+      <c r="G339" s="19">
+        <v>668000</v>
+      </c>
+      <c r="H339" s="20"/>
+      <c r="I339" s="20"/>
+      <c r="J339" s="21"/>
+    </row>
+    <row r="340" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B340" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D340" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E340" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F340" s="19">
+        <v>109285</v>
+      </c>
+      <c r="G340" s="19">
+        <v>2732118</v>
+      </c>
+      <c r="H340" s="20"/>
+      <c r="I340" s="20"/>
+      <c r="J340" s="21"/>
+    </row>
+    <row r="341" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B341" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D341" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E341" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F341" s="19">
+        <v>67440</v>
+      </c>
+      <c r="G341" s="19">
+        <v>1686014</v>
+      </c>
+      <c r="H341" s="20"/>
+      <c r="I341" s="20"/>
+      <c r="J341" s="21"/>
+    </row>
+    <row r="342" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B342" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D342" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E342" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F342" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G342" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H342" s="20"/>
+      <c r="I342" s="20"/>
+      <c r="J342" s="21"/>
     </row>
     <row r="343" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B343" s="32" t="s">
+      <c r="B343" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F343" s="19">
+        <v>31249</v>
+      </c>
+      <c r="G343" s="19">
+        <v>781242</v>
+      </c>
+      <c r="H343" s="20"/>
+      <c r="I343" s="20"/>
+      <c r="J343" s="21"/>
+    </row>
+    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B344" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D344" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E344" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F344" s="26">
+        <v>92452</v>
+      </c>
+      <c r="G344" s="26">
+        <v>2311289</v>
+      </c>
+      <c r="H344" s="27"/>
+      <c r="I344" s="27"/>
+      <c r="J344" s="28"/>
+    </row>
+    <row r="349" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B349" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C349" s="34"/>
+      <c r="H349" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B350" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C343" s="32"/>
-      <c r="H343" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I343" s="1"/>
-      <c r="J343" s="1"/>
-    </row>
-    <row r="344" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B344" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C344" s="32"/>
-      <c r="H344" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I344" s="1"/>
-      <c r="J344" s="1"/>
+      <c r="C350" s="34"/>
+      <c r="H350" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B344:C344"/>
-    <mergeCell ref="B343:C343"/>
-    <mergeCell ref="H344:J344"/>
-    <mergeCell ref="H343:J343"/>
+    <mergeCell ref="B350:C350"/>
+    <mergeCell ref="B349:C349"/>
+    <mergeCell ref="H350:J350"/>
+    <mergeCell ref="H349:J349"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
